--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/6/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/6/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>427.3870288902003</v>
+        <v>418.2365599745192</v>
       </c>
       <c r="C2" t="n">
-        <v>427387028.8902003</v>
+        <v>418236559.9745192</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>563.9238236302691</v>
+        <v>598.5065545840708</v>
       </c>
       <c r="C3" t="n">
-        <v>563923823.6302692</v>
+        <v>598506554.5840708</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>599.3476010103117</v>
+        <v>675.6452267804225</v>
       </c>
       <c r="C4" t="n">
-        <v>599347601.0103117</v>
+        <v>675645226.7804224</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>621.427578631065</v>
+        <v>728.2235854253568</v>
       </c>
       <c r="C5" t="n">
-        <v>621427578.631065</v>
+        <v>728223585.4253567</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>637.6829874449015</v>
+        <v>768.9266275962665</v>
       </c>
       <c r="C6" t="n">
-        <v>637682987.4449016</v>
+        <v>768926627.5962665</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>650.6261746046625</v>
+        <v>802.4830986751708</v>
       </c>
       <c r="C7" t="n">
-        <v>650626174.6046625</v>
+        <v>802483098.6751708</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>661.4184920514704</v>
+        <v>831.2156043478911</v>
       </c>
       <c r="C8" t="n">
-        <v>661418492.0514704</v>
+        <v>831215604.3478911</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>670.6959435317676</v>
+        <v>856.4498518682269</v>
       </c>
       <c r="C9" t="n">
-        <v>670695943.5317676</v>
+        <v>856449851.8682269</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>678.8459891555697</v>
+        <v>879.019030497835</v>
       </c>
       <c r="C10" t="n">
-        <v>678845989.1555697</v>
+        <v>879019030.497835</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>686.1227492722887</v>
+        <v>899.4833434479618</v>
       </c>
       <c r="C11" t="n">
-        <v>686122749.2722887</v>
+        <v>899483343.4479618</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>692.7021983786798</v>
+        <v>918.238794055724</v>
       </c>
       <c r="C12" t="n">
-        <v>692702198.3786798</v>
+        <v>918238794.055724</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>698.711393858173</v>
+        <v>935.5763656804372</v>
       </c>
       <c r="C13" t="n">
-        <v>698711393.858173</v>
+        <v>935576365.6804372</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>704.2451660150763</v>
+        <v>951.7165752011775</v>
       </c>
       <c r="C14" t="n">
-        <v>704245166.0150763</v>
+        <v>951716575.2011775</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>709.3762271399963</v>
+        <v>966.8308020316747</v>
       </c>
       <c r="C15" t="n">
-        <v>709376227.1399963</v>
+        <v>966830802.0316747</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>714.1615923129093</v>
+        <v>981.0550598444146</v>
       </c>
       <c r="C16" t="n">
-        <v>714161592.3129094</v>
+        <v>981055059.8444146</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>718.6468203058043</v>
+        <v>994.4992255392925</v>
       </c>
       <c r="C17" t="n">
-        <v>718646820.3058044</v>
+        <v>994499225.5392926</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>722.8689081237109</v>
+        <v>1007.253420380666</v>
       </c>
       <c r="C18" t="n">
-        <v>722868908.1237109</v>
+        <v>1007253420.380666</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>726.8583225936578</v>
+        <v>1019.392541371545</v>
       </c>
       <c r="C19" t="n">
-        <v>726858322.5936579</v>
+        <v>1019392541.371545</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>730.6404610385713</v>
+        <v>1030.979554080084</v>
       </c>
       <c r="C20" t="n">
-        <v>730640461.0385712</v>
+        <v>1030979554.080084</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>734.2367237483223</v>
+        <v>1042.067934047398</v>
       </c>
       <c r="C21" t="n">
-        <v>734236723.7483224</v>
+        <v>1042067934.047398</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>737.6653160874865</v>
+        <v>1052.703509258826</v>
       </c>
       <c r="C22" t="n">
-        <v>737665316.0874865</v>
+        <v>1052703509.258826</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>740.9418582904271</v>
+        <v>1062.925872630227</v>
       </c>
       <c r="C23" t="n">
-        <v>740941858.2904272</v>
+        <v>1062925872.630227</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>744.079855871065</v>
+        <v>1072.769480165116</v>
       </c>
       <c r="C24" t="n">
-        <v>744079855.871065</v>
+        <v>1072769480.165116</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>747.0910672981931</v>
+        <v>1082.264515575852</v>
       </c>
       <c r="C25" t="n">
-        <v>747091067.2981931</v>
+        <v>1082264515.575852</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>749.9857947973283</v>
+        <v>1091.437578844081</v>
       </c>
       <c r="C26" t="n">
-        <v>749985794.7973282</v>
+        <v>1091437578.844081</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>752.7731168384005</v>
+        <v>1100.312240284079</v>
       </c>
       <c r="C27" t="n">
-        <v>752773116.8384005</v>
+        <v>1100312240.284079</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>755.4610758345326</v>
+        <v>1108.909490617009</v>
       </c>
       <c r="C28" t="n">
-        <v>755461075.8345326</v>
+        <v>1108909490.617009</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>758.0568310473275</v>
+        <v>1117.248109755066</v>
       </c>
       <c r="C29" t="n">
-        <v>758056831.0473275</v>
+        <v>1117248109.755066</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>760.5667841805508</v>
+        <v>1125.344971395398</v>
       </c>
       <c r="C30" t="n">
-        <v>760566784.1805508</v>
+        <v>1125344971.395398</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>762.9966833287806</v>
+        <v>1133.215296453544</v>
       </c>
       <c r="C31" t="n">
-        <v>762996683.3287805</v>
+        <v>1133215296.453544</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>765.3517096194355</v>
+        <v>1140.872865369762</v>
       </c>
       <c r="C32" t="n">
-        <v>765351709.6194355</v>
+        <v>1140872865.369762</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>767.6365499031157</v>
+        <v>1148.330197089882</v>
       </c>
       <c r="C33" t="n">
-        <v>767636549.9031156</v>
+        <v>1148330197.089882</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>769.8554581108597</v>
+        <v>1155.598700842005</v>
       </c>
       <c r="C34" t="n">
-        <v>769855458.1108596</v>
+        <v>1155598700.842005</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>772.0123073398942</v>
+        <v>1162.688805552472</v>
       </c>
       <c r="C35" t="n">
-        <v>772012307.3398942</v>
+        <v>1162688805.552472</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>774.1106343040327</v>
+        <v>1169.610070763552</v>
       </c>
       <c r="C36" t="n">
-        <v>774110634.3040327</v>
+        <v>1169610070.763552</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>776.1536774570477</v>
+        <v>1176.371282155646</v>
       </c>
       <c r="C37" t="n">
-        <v>776153677.4570477</v>
+        <v>1176371282.155646</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>778.1444098425844</v>
+        <v>1182.980534183739</v>
       </c>
       <c r="C38" t="n">
-        <v>778144409.8425844</v>
+        <v>1182980534.183739</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>780.0855675246653</v>
+        <v>1189.445301871245</v>
       </c>
       <c r="C39" t="n">
-        <v>780085567.5246652</v>
+        <v>1189445301.871245</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>781.9796742954153</v>
+        <v>1195.772503434627</v>
       </c>
       <c r="C40" t="n">
-        <v>781979674.2954153</v>
+        <v>1195772503.434628</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>783.8290632315727</v>
+        <v>1201.968555117264</v>
       </c>
       <c r="C41" t="n">
-        <v>783829063.2315727</v>
+        <v>1201968555.117264</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>785.6358955713401</v>
+        <v>1208.03941937415</v>
       </c>
       <c r="C42" t="n">
-        <v>785635895.5713401</v>
+        <v>1208039419.37415</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>787.4021773026533</v>
+        <v>1213.990647357742</v>
       </c>
       <c r="C43" t="n">
-        <v>787402177.3026533</v>
+        <v>1213990647.357742</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>789.1297737888224</v>
+        <v>1219.827416499842</v>
       </c>
       <c r="C44" t="n">
-        <v>789129773.7888224</v>
+        <v>1219827416.499842</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>790.820422704489</v>
+        <v>1225.55456385746</v>
       </c>
       <c r="C45" t="n">
-        <v>790820422.704489</v>
+        <v>1225554563.85746</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>792.4757455114799</v>
+        <v>1231.176615786376</v>
       </c>
       <c r="C46" t="n">
-        <v>792475745.5114799</v>
+        <v>1231176615.786376</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>794.0972576684842</v>
+        <v>1236.697814420155</v>
       </c>
       <c r="C47" t="n">
-        <v>794097257.6684842</v>
+        <v>1236697814.420155</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>795.6863777390281</v>
+        <v>1242.122141361063</v>
       </c>
       <c r="C48" t="n">
-        <v>795686377.7390281</v>
+        <v>1242122141.361063</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>797.2444355377711</v>
+        <v>1247.453338930033</v>
       </c>
       <c r="C49" t="n">
-        <v>797244435.5377711</v>
+        <v>1247453338.930033</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>798.7726794347818</v>
+        <v>1252.694929273195</v>
       </c>
       <c r="C50" t="n">
-        <v>798772679.4347818</v>
+        <v>1252694929.273195</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>800.2722829204007</v>
+        <v>1257.850231580847</v>
       </c>
       <c r="C51" t="n">
-        <v>800272282.9204007</v>
+        <v>1257850231.580847</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>801.7443505189688</v>
+        <v>1262.922377639669</v>
       </c>
       <c r="C52" t="n">
-        <v>801744350.5189687</v>
+        <v>1262922377.639669</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>803.1899231276262</v>
+        <v>1267.914325909262</v>
       </c>
       <c r="C53" t="n">
-        <v>803189923.1276262</v>
+        <v>1267914325.909262</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>804.6099828461557</v>
+        <v>1272.828874288952</v>
       </c>
       <c r="C54" t="n">
-        <v>804609982.8461558</v>
+        <v>1272828874.288952</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>806.0054573551656</v>
+        <v>1277.668671719303</v>
       </c>
       <c r="C55" t="n">
-        <v>806005457.3551656</v>
+        <v>1277668671.719303</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>807.3772238925005</v>
+        <v>1282.436228744461</v>
       </c>
       <c r="C56" t="n">
-        <v>807377223.8925005</v>
+        <v>1282436228.744461</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>808.7261128714515</v>
+        <v>1287.133927145758</v>
       </c>
       <c r="C57" t="n">
-        <v>808726112.8714515</v>
+        <v>1287133927.145758</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>810.0529111789035</v>
+        <v>1291.764028743475</v>
       </c>
       <c r="C58" t="n">
-        <v>810052911.1789035</v>
+        <v>1291764028.743475</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>811.3583651868997</v>
+        <v>1296.328683452013</v>
       </c>
       <c r="C59" t="n">
-        <v>811358365.1868998</v>
+        <v>1296328683.452013</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>812.6431835070758</v>
+        <v>1300.829936663688</v>
       </c>
       <c r="C60" t="n">
-        <v>812643183.5070758</v>
+        <v>1300829936.663688</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>813.9080395139398</v>
+        <v>1305.2697360276</v>
       </c>
       <c r="C61" t="n">
-        <v>813908039.5139397</v>
+        <v>1305269736.0276</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>815.1535736599564</v>
+        <v>1309.649937682456</v>
       </c>
       <c r="C62" t="n">
-        <v>815153573.6599563</v>
+        <v>1309649937.682456</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>816.3803956027705</v>
+        <v>1313.972311995625</v>
       </c>
       <c r="C63" t="n">
-        <v>816380395.6027704</v>
+        <v>1313972311.995625</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>817.5890861626235</v>
+        <v>1318.238548854921</v>
       </c>
       <c r="C64" t="n">
-        <v>817589086.1626235</v>
+        <v>1318238548.854921</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>818.780199126017</v>
+        <v>1322.450262554568</v>
       </c>
       <c r="C65" t="n">
-        <v>818780199.126017</v>
+        <v>1322450262.554568</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>819.9542629099317</v>
+        <v>1326.608996312352</v>
       </c>
       <c r="C66" t="n">
-        <v>819954262.9099317</v>
+        <v>1326608996.312352</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>821.1117820993796</v>
+        <v>1330.716226451084</v>
       </c>
       <c r="C67" t="n">
-        <v>821111782.0993797</v>
+        <v>1330716226.451084</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>822.2532388697153</v>
+        <v>1334.773366274067</v>
       </c>
       <c r="C68" t="n">
-        <v>822253238.8697153</v>
+        <v>1334773366.274067</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>823.3790943039486</v>
+        <v>1338.781769661204</v>
       </c>
       <c r="C69" t="n">
-        <v>823379094.3039486</v>
+        <v>1338781769.661204</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>824.4897896142495</v>
+        <v>1342.74273440973</v>
       </c>
       <c r="C70" t="n">
-        <v>824489789.6142495</v>
+        <v>1342742734.40973</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>825.5857472759111</v>
+        <v>1346.65750534116</v>
       </c>
       <c r="C71" t="n">
-        <v>825585747.2759111</v>
+        <v>1346657505.341161</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>826.6673720812157</v>
+        <v>1350.527277193942</v>
       </c>
       <c r="C72" t="n">
-        <v>826667372.0812157</v>
+        <v>1350527277.193942</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>827.7350521199144</v>
+        <v>1354.353197319408</v>
       </c>
       <c r="C73" t="n">
-        <v>827735052.1199144</v>
+        <v>1354353197.319408</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>828.7891596923874</v>
+        <v>1358.136368196983</v>
       </c>
       <c r="C74" t="n">
-        <v>828789159.6923875</v>
+        <v>1358136368.196983</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>829.8300521609738</v>
+        <v>1361.877849783069</v>
       </c>
       <c r="C75" t="n">
-        <v>829830052.1609738</v>
+        <v>1361877849.783069</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>830.8580727444371</v>
+        <v>1365.578661706732</v>
       </c>
       <c r="C76" t="n">
-        <v>830858072.7444371</v>
+        <v>1365578661.706732</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>831.8735512600833</v>
+        <v>1369.239785324088</v>
       </c>
       <c r="C77" t="n">
-        <v>831873551.2600833</v>
+        <v>1369239785.324088</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>832.8768048176215</v>
+        <v>1372.862165642247</v>
       </c>
       <c r="C78" t="n">
-        <v>832876804.8176215</v>
+        <v>1372862165.642246</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>833.8681384685023</v>
+        <v>1376.446713122677</v>
       </c>
       <c r="C79" t="n">
-        <v>833868138.4685023</v>
+        <v>1376446713.122677</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>834.8478458141213</v>
+        <v>1379.994305373013</v>
       </c>
       <c r="C80" t="n">
-        <v>834847845.8141214</v>
+        <v>1379994305.373013</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>835.8162095759909</v>
+        <v>1383.505788735537</v>
       </c>
       <c r="C81" t="n">
-        <v>835816209.5759909</v>
+        <v>1383505788.735537</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>836.7735021307019</v>
+        <v>1386.981979779861</v>
       </c>
       <c r="C82" t="n">
-        <v>836773502.1307019</v>
+        <v>1386981979.779861</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>837.7199860122628</v>
+        <v>1390.423666706711</v>
       </c>
       <c r="C83" t="n">
-        <v>837719986.0122628</v>
+        <v>1390423666.706711</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>838.6559143841812</v>
+        <v>1393.831610669122</v>
       </c>
       <c r="C84" t="n">
-        <v>838655914.3841811</v>
+        <v>1393831610.669122</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>839.5815314834543</v>
+        <v>1397.206547016855</v>
       </c>
       <c r="C85" t="n">
-        <v>839581531.4834543</v>
+        <v>1397206547.016855</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>840.4970730384566</v>
+        <v>1400.549186469356</v>
       </c>
       <c r="C86" t="n">
-        <v>840497073.0384567</v>
+        <v>1400549186.469356</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>841.4027666625503</v>
+        <v>1403.860216222158</v>
       </c>
       <c r="C87" t="n">
-        <v>841402766.6625503</v>
+        <v>1403860216.222158</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>842.298832225096</v>
+        <v>1407.140300991239</v>
       </c>
       <c r="C88" t="n">
-        <v>842298832.225096</v>
+        <v>1407140300.991239</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>843.1854822014085</v>
+        <v>1410.390083999486</v>
       </c>
       <c r="C89" t="n">
-        <v>843185482.2014085</v>
+        <v>1410390083.999486</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>844.0629220030781</v>
+        <v>1413.610187909106</v>
       </c>
       <c r="C90" t="n">
-        <v>844062922.0030781</v>
+        <v>1413610187.909106</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>844.9313502899691</v>
+        <v>1416.801215703514</v>
       </c>
       <c r="C91" t="n">
-        <v>844931350.2899691</v>
+        <v>1416801215.703514</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>845.7909592651069</v>
+        <v>1419.963751521977</v>
       </c>
       <c r="C92" t="n">
-        <v>845790959.2651069</v>
+        <v>1419963751.521977</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>846.6419349535665</v>
+        <v>1423.098361450036</v>
       </c>
       <c r="C93" t="n">
-        <v>846641934.9535666</v>
+        <v>1423098361.450036</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>847.4844574664018</v>
+        <v>1426.205594268502</v>
       </c>
       <c r="C94" t="n">
-        <v>847484457.4664017</v>
+        <v>1426205594.268502</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>848.3187012505654</v>
+        <v>1429.285982163626</v>
       </c>
       <c r="C95" t="n">
-        <v>848318701.2505654</v>
+        <v>1429285982.163626</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>849.1448353257086</v>
+        <v>1432.340041400849</v>
       </c>
       <c r="C96" t="n">
-        <v>849144835.3257086</v>
+        <v>1432340041.400849</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>849.9630235086792</v>
+        <v>1435.368272964362</v>
       </c>
       <c r="C97" t="n">
-        <v>849963023.5086792</v>
+        <v>1435368272.964362</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>850.7734246264796</v>
+        <v>1438.371163164554</v>
       </c>
       <c r="C98" t="n">
-        <v>850773424.6264796</v>
+        <v>1438371163.164554</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>851.576192718393</v>
+        <v>1441.349184215268</v>
       </c>
       <c r="C99" t="n">
-        <v>851576192.7183931</v>
+        <v>1441349184.215268</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>852.3714772279301</v>
+        <v>1444.302794782678</v>
       </c>
       <c r="C100" t="n">
-        <v>852371477.2279301</v>
+        <v>1444302794.782678</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>853.1594231852121</v>
+        <v>1447.232440507428</v>
       </c>
       <c r="C101" t="n">
-        <v>853159423.185212</v>
+        <v>1447232440.507428</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>853.9401713803545</v>
+        <v>1450.138554501622</v>
       </c>
       <c r="C102" t="n">
-        <v>853940171.3803545</v>
+        <v>1450138554.501622</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>854.7138585283818</v>
+        <v>1453.02155782209</v>
       </c>
       <c r="C103" t="n">
-        <v>854713858.5283818</v>
+        <v>1453021557.82209</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>855.4806174261668</v>
+        <v>1455.881859921293</v>
       </c>
       <c r="C104" t="n">
-        <v>855480617.4261668</v>
+        <v>1455881859.921293</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>856.2405771018523</v>
+        <v>1458.719859077137</v>
       </c>
       <c r="C105" t="n">
-        <v>856240577.1018523</v>
+        <v>1458719859.077137</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>856.9938629571881</v>
+        <v>1461.535942802871</v>
       </c>
       <c r="C106" t="n">
-        <v>856993862.9571881</v>
+        <v>1461535942.802871</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>857.7405969031785</v>
+        <v>1464.330488238169</v>
       </c>
       <c r="C107" t="n">
-        <v>857740596.9031785</v>
+        <v>1464330488.238169</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>858.4808974894213</v>
+        <v>1467.10386252244</v>
       </c>
       <c r="C108" t="n">
-        <v>858480897.4894212</v>
+        <v>1467103862.52244</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>859.2148800274829</v>
+        <v>1469.856423151325</v>
       </c>
       <c r="C109" t="n">
-        <v>859214880.0274829</v>
+        <v>1469856423.151325</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>859.9426567086399</v>
+        <v>1472.588518317291</v>
       </c>
       <c r="C110" t="n">
-        <v>859942656.7086399</v>
+        <v>1472588518.317291</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>860.6643367162944</v>
+        <v>1475.300487235173</v>
       </c>
       <c r="C111" t="n">
-        <v>860664336.7162944</v>
+        <v>1475300487.235173</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>861.3800263333485</v>
+        <v>1477.992660453447</v>
       </c>
       <c r="C112" t="n">
-        <v>861380026.3333485</v>
+        <v>1477992660.453447</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>862.0898290448094</v>
+        <v>1480.66536015201</v>
       </c>
       <c r="C113" t="n">
-        <v>862089829.0448095</v>
+        <v>1480665360.15201</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>862.7938456358777</v>
+        <v>1483.318900427139</v>
       </c>
       <c r="C114" t="n">
-        <v>862793845.6358777</v>
+        <v>1483318900.427139</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>863.4921742857539</v>
+        <v>1485.953587564306</v>
       </c>
       <c r="C115" t="n">
-        <v>863492174.2857538</v>
+        <v>1485953587.564306</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>864.1849106573893</v>
+        <v>1488.569720299462</v>
       </c>
       <c r="C116" t="n">
-        <v>864184910.6573893</v>
+        <v>1488569720.299463</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>864.8721479833883</v>
+        <v>1491.167590069389</v>
       </c>
       <c r="C117" t="n">
-        <v>864872147.9833883</v>
+        <v>1491167590.069389</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>865.5539771482601</v>
+        <v>1493.747481251633</v>
       </c>
       <c r="C118" t="n">
-        <v>865553977.1482601</v>
+        <v>1493747481.251633</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>866.2304867672035</v>
+        <v>1496.309671394587</v>
       </c>
       <c r="C119" t="n">
-        <v>866230486.7672035</v>
+        <v>1496309671.394587</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>866.901763261602</v>
+        <v>1498.854431438159</v>
       </c>
       <c r="C120" t="n">
-        <v>866901763.261602</v>
+        <v>1498854431.438159</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>867.5678909313898</v>
+        <v>1501.382025925523</v>
       </c>
       <c r="C121" t="n">
-        <v>867567890.9313898</v>
+        <v>1501382025.925523</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>868.228952024446</v>
+        <v>1503.892713206365</v>
       </c>
       <c r="C122" t="n">
-        <v>868228952.024446</v>
+        <v>1503892713.206365</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>868.8850268031613</v>
+        <v>1506.386745632043</v>
       </c>
       <c r="C123" t="n">
-        <v>868885026.8031613</v>
+        <v>1506386745.632043</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>869.5361936083157</v>
+        <v>1508.864369743039</v>
       </c>
       <c r="C124" t="n">
-        <v>869536193.6083157</v>
+        <v>1508864369.743039</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>870.1825289203962</v>
+        <v>1511.325826449074</v>
       </c>
       <c r="C125" t="n">
-        <v>870182528.9203962</v>
+        <v>1511325826.449074</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>870.824107418477</v>
+        <v>1513.771351202228</v>
       </c>
       <c r="C126" t="n">
-        <v>870824107.4184769</v>
+        <v>1513771351.202228</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>871.4610020367785</v>
+        <v>1516.20117416339</v>
       </c>
       <c r="C127" t="n">
-        <v>871461002.0367785</v>
+        <v>1516201174.16339</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>872.0932840190137</v>
+        <v>1518.615520362347</v>
       </c>
       <c r="C128" t="n">
-        <v>872093284.0190138</v>
+        <v>1518615520.362347</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>872.7210229706257</v>
+        <v>1521.014609851803</v>
       </c>
       <c r="C129" t="n">
-        <v>872721022.9706256</v>
+        <v>1521014609.851803</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>873.344286909014</v>
+        <v>1523.398657855603</v>
       </c>
       <c r="C130" t="n">
-        <v>873344286.909014</v>
+        <v>1523398657.855603</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>873.9631423118425</v>
+        <v>1525.767874911426</v>
       </c>
       <c r="C131" t="n">
-        <v>873963142.3118424</v>
+        <v>1525767874.911426</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>874.577654163515</v>
+        <v>1528.122467008193</v>
       </c>
       <c r="C132" t="n">
-        <v>874577654.1635151</v>
+        <v>1528122467.008193</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>875.1878859999043</v>
+        <v>1530.462635718419</v>
       </c>
       <c r="C133" t="n">
-        <v>875187885.9999043</v>
+        <v>1530462635.718419</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>875.7938999514099</v>
+        <v>1532.78857832575</v>
       </c>
       <c r="C134" t="n">
-        <v>875793899.9514099</v>
+        <v>1532788578.32575</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>876.3957567844216</v>
+        <v>1535.100487947867</v>
       </c>
       <c r="C135" t="n">
-        <v>876395756.7844216</v>
+        <v>1535100487.947867</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>876.9935159412577</v>
+        <v>1537.398553654989</v>
       </c>
       <c r="C136" t="n">
-        <v>876993515.9412577</v>
+        <v>1537398553.654989</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>877.587235578646</v>
+        <v>1539.682960584137</v>
       </c>
       <c r="C137" t="n">
-        <v>877587235.5786459</v>
+        <v>1539682960.584137</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>878.1769726048108</v>
+        <v>1541.953890049365</v>
       </c>
       <c r="C138" t="n">
-        <v>878176972.6048107</v>
+        <v>1541953890.049365</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>878.7627827152254</v>
+        <v>1544.211519648108</v>
       </c>
       <c r="C139" t="n">
-        <v>878762782.7152253</v>
+        <v>1544211519.648108</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>879.344720427089</v>
+        <v>1546.456023363826</v>
       </c>
       <c r="C140" t="n">
-        <v>879344720.427089</v>
+        <v>1546456023.363827</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>879.9228391125815</v>
+        <v>1548.687571665091</v>
       </c>
       <c r="C141" t="n">
-        <v>879922839.1125815</v>
+        <v>1548687571.665091</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>880.4971910309475</v>
+        <v>1550.906331601264</v>
       </c>
       <c r="C142" t="n">
-        <v>880497191.0309476</v>
+        <v>1550906331.601264</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>881.0678273594601</v>
+        <v>1553.112466894912</v>
       </c>
       <c r="C143" t="n">
-        <v>881067827.3594601</v>
+        <v>1553112466.894912</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>881.6347982233096</v>
+        <v>1555.306138031086</v>
       </c>
       <c r="C144" t="n">
-        <v>881634798.2233096</v>
+        <v>1555306138.031086</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>882.1981527244639</v>
+        <v>1557.487502343599</v>
       </c>
       <c r="C145" t="n">
-        <v>882198152.7244638</v>
+        <v>1557487502.343599</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>882.75793896954</v>
+        <v>1559.656714098415</v>
       </c>
       <c r="C146" t="n">
-        <v>882757938.96954</v>
+        <v>1559656714.098415</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>883.3142040967299</v>
+        <v>1561.813924574271</v>
       </c>
       <c r="C147" t="n">
-        <v>883314204.0967299</v>
+        <v>1561813924.574271</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>883.866994301818</v>
+        <v>1563.959282140647</v>
       </c>
       <c r="C148" t="n">
-        <v>883866994.301818</v>
+        <v>1563959282.140647</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>884.4163548633255</v>
+        <v>1566.092932333173</v>
       </c>
       <c r="C149" t="n">
-        <v>884416354.8633255</v>
+        <v>1566092932.333173</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>884.9623301668195</v>
+        <v>1568.215017926592</v>
       </c>
       <c r="C150" t="n">
-        <v>884962330.1668195</v>
+        <v>1568215017.926592</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>885.5049637284177</v>
+        <v>1570.325679005361</v>
       </c>
       <c r="C151" t="n">
-        <v>885504963.7284176</v>
+        <v>1570325679.005361</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>886.0442982175216</v>
+        <v>1572.425053031991</v>
       </c>
       <c r="C152" t="n">
-        <v>886044298.2175215</v>
+        <v>1572425053.031991</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>886.5803754788075</v>
+        <v>1574.513274913204</v>
       </c>
       <c r="C153" t="n">
-        <v>886580375.4788074</v>
+        <v>1574513274.913204</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>887.1132365535063</v>
+        <v>1576.590477064001</v>
       </c>
       <c r="C154" t="n">
-        <v>887113236.5535064</v>
+        <v>1576590477.064001</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>887.6429216999973</v>
+        <v>1578.656789469705</v>
       </c>
       <c r="C155" t="n">
-        <v>887642921.6999973</v>
+        <v>1578656789.469705</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>888.1694704137429</v>
+        <v>1580.712339746078</v>
       </c>
       <c r="C156" t="n">
-        <v>888169470.4137429</v>
+        <v>1580712339.746078</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>888.6929214465919</v>
+        <v>1582.757253197565</v>
       </c>
       <c r="C157" t="n">
-        <v>888692921.4465919</v>
+        <v>1582757253.197565</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>889.2133128254713</v>
+        <v>1584.791652873735</v>
       </c>
       <c r="C158" t="n">
-        <v>889213312.8254714</v>
+        <v>1584791652.873735</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>889.7306818704931</v>
+        <v>1586.815659624004</v>
       </c>
       <c r="C159" t="n">
-        <v>889730681.8704931</v>
+        <v>1586815659.624004</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>890.2450652124958</v>
+        <v>1588.829392150683</v>
       </c>
       <c r="C160" t="n">
-        <v>890245065.2124958</v>
+        <v>1588829392.150683</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>890.756498810044</v>
+        <v>1590.832967060422</v>
       </c>
       <c r="C161" t="n">
-        <v>890756498.8100441</v>
+        <v>1590832967.060422</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>891.2650179659032</v>
+        <v>1592.826498914112</v>
       </c>
       <c r="C162" t="n">
-        <v>891265017.9659032</v>
+        <v>1592826498.914112</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>891.7706573430119</v>
+        <v>1594.810100275284</v>
       </c>
       <c r="C163" t="n">
-        <v>891770657.3430119</v>
+        <v>1594810100.275285</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>892.2734509799675</v>
+        <v>1596.783881757086</v>
       </c>
       <c r="C164" t="n">
-        <v>892273450.9799675</v>
+        <v>1596783881.757086</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>892.773432306045</v>
+        <v>1598.747952067857</v>
       </c>
       <c r="C165" t="n">
-        <v>892773432.3060451</v>
+        <v>1598747952.067857</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>893.2706341557645</v>
+        <v>1600.702418055376</v>
       </c>
       <c r="C166" t="n">
-        <v>893270634.1557645</v>
+        <v>1600702418.055376</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>893.7650887830233</v>
+        <v>1602.647384749815</v>
       </c>
       <c r="C167" t="n">
-        <v>893765088.7830234</v>
+        <v>1602647384.749815</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>894.2568278748104</v>
+        <v>1604.582955405449</v>
       </c>
       <c r="C168" t="n">
-        <v>894256827.8748103</v>
+        <v>1604582955.405449</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>894.7458825645149</v>
+        <v>1606.509231541163</v>
       </c>
       <c r="C169" t="n">
-        <v>894745882.5645149</v>
+        <v>1606509231.541162</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>895.2322834448458</v>
+        <v>1608.426312979795</v>
       </c>
       <c r="C170" t="n">
-        <v>895232283.4448458</v>
+        <v>1608426312.979795</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>895.7160605803748</v>
+        <v>1610.334297886373</v>
       </c>
       <c r="C171" t="n">
-        <v>895716060.5803748</v>
+        <v>1610334297.886373</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>896.1972435197152</v>
+        <v>1612.233282805248</v>
       </c>
       <c r="C172" t="n">
-        <v>896197243.5197152</v>
+        <v>1612233282.805248</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>896.6758613073519</v>
+        <v>1614.123362696204</v>
       </c>
       <c r="C173" t="n">
-        <v>896675861.3073518</v>
+        <v>1614123362.696204</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>897.1519424951302</v>
+        <v>1616.004630969543</v>
       </c>
       <c r="C174" t="n">
-        <v>897151942.4951303</v>
+        <v>1616004630.969543</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>897.625515153421</v>
+        <v>1617.877179520199</v>
       </c>
       <c r="C175" t="n">
-        <v>897625515.153421</v>
+        <v>1617877179.520199</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>898.0966068819667</v>
+        <v>1619.741098760913</v>
       </c>
       <c r="C176" t="n">
-        <v>898096606.8819667</v>
+        <v>1619741098.760913</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>898.5652448204243</v>
+        <v>1621.596477654487</v>
       </c>
       <c r="C177" t="n">
-        <v>898565244.8204242</v>
+        <v>1621596477.654486</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>899.0314556586127</v>
+        <v>1623.443403745164</v>
       </c>
       <c r="C178" t="n">
-        <v>899031455.6586127</v>
+        <v>1623443403.745164</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>899.4952656464752</v>
+        <v>1625.281963189155</v>
       </c>
       <c r="C179" t="n">
-        <v>899495265.6464752</v>
+        <v>1625281963.189155</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>899.9567006037664</v>
+        <v>1627.112240784331</v>
       </c>
       <c r="C180" t="n">
-        <v>899956700.6037664</v>
+        <v>1627112240.784331</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>900.4157859294726</v>
+        <v>1628.934319999133</v>
       </c>
       <c r="C181" t="n">
-        <v>900415785.9294726</v>
+        <v>1628934319.999133</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>900.8725466109748</v>
+        <v>1630.748283000694</v>
       </c>
       <c r="C182" t="n">
-        <v>900872546.6109748</v>
+        <v>1630748283.000694</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>901.3270072329626</v>
+        <v>1632.554210682223</v>
       </c>
       <c r="C183" t="n">
-        <v>901327007.2329626</v>
+        <v>1632554210.682223</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>901.7791919861064</v>
+        <v>1634.352182689663</v>
       </c>
       <c r="C184" t="n">
-        <v>901779191.9861064</v>
+        <v>1634352182.689663</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>902.2291246754971</v>
+        <v>1636.142277447646</v>
       </c>
       <c r="C185" t="n">
-        <v>902229124.6754972</v>
+        <v>1636142277.447646</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>902.6768287288595</v>
+        <v>1637.924572184771</v>
       </c>
       <c r="C186" t="n">
-        <v>902676828.7288595</v>
+        <v>1637924572.184772</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>903.1223272045473</v>
+        <v>1639.699142958228</v>
       </c>
       <c r="C187" t="n">
-        <v>903122327.2045473</v>
+        <v>1639699142.958228</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>903.565642799327</v>
+        <v>1641.466064677777</v>
       </c>
       <c r="C188" t="n">
-        <v>903565642.7993269</v>
+        <v>1641466064.677777</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>904.0067978559557</v>
+        <v>1643.225411129118</v>
       </c>
       <c r="C189" t="n">
-        <v>904006797.8559557</v>
+        <v>1643225411.129118</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>904.4458143705623</v>
+        <v>1644.97725499666</v>
       </c>
       <c r="C190" t="n">
-        <v>904445814.3705623</v>
+        <v>1644977254.99666</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>904.8827139998342</v>
+        <v>1646.721667885711</v>
       </c>
       <c r="C191" t="n">
-        <v>904882713.9998342</v>
+        <v>1646721667.885711</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>905.3175180680206</v>
+        <v>1648.458720344104</v>
       </c>
       <c r="C192" t="n">
-        <v>905317518.0680206</v>
+        <v>1648458720.344104</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>905.7502475737527</v>
+        <v>1650.188481883282</v>
       </c>
       <c r="C193" t="n">
-        <v>905750247.5737528</v>
+        <v>1650188481.883282</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>906.1809231966907</v>
+        <v>1651.911020998851</v>
       </c>
       <c r="C194" t="n">
-        <v>906180923.1966908</v>
+        <v>1651911020.998851</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>906.6095653040009</v>
+        <v>1653.626405190627</v>
       </c>
       <c r="C195" t="n">
-        <v>906609565.3040009</v>
+        <v>1653626405.190627</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>907.0361939566677</v>
+        <v>1655.334700982175</v>
       </c>
       <c r="C196" t="n">
-        <v>907036193.9566677</v>
+        <v>1655334700.982175</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>907.460828915648</v>
+        <v>1657.03597393988</v>
       </c>
       <c r="C197" t="n">
-        <v>907460828.915648</v>
+        <v>1657035973.93988</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>907.8834896478696</v>
+        <v>1658.730288691537</v>
       </c>
       <c r="C198" t="n">
-        <v>907883489.6478696</v>
+        <v>1658730288.691537</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>908.3041953320798</v>
+        <v>1660.417708944495</v>
       </c>
       <c r="C199" t="n">
-        <v>908304195.3320798</v>
+        <v>1660417708.944495</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>908.7229648645497</v>
+        <v>1662.098297503361</v>
       </c>
       <c r="C200" t="n">
-        <v>908722964.8645496</v>
+        <v>1662098297.503361</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>909.1398168646363</v>
+        <v>1663.772116287266</v>
       </c>
       <c r="C201" t="n">
-        <v>909139816.8646363</v>
+        <v>1663772116.287266</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>909.5547696802087</v>
+        <v>1665.439226346732</v>
       </c>
       <c r="C202" t="n">
-        <v>909554769.6802087</v>
+        <v>1665439226.346732</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>909.9678413929403</v>
+        <v>1667.099687880119</v>
       </c>
       <c r="C203" t="n">
-        <v>909967841.3929403</v>
+        <v>1667099687.880119</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>910.3790498234732</v>
+        <v>1668.753560249691</v>
       </c>
       <c r="C204" t="n">
-        <v>910379049.8234732</v>
+        <v>1668753560.249691</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>910.7884125364571</v>
+        <v>1670.400901997298</v>
       </c>
       <c r="C205" t="n">
-        <v>910788412.5364572</v>
+        <v>1670400901.997298</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>911.1959468454659</v>
+        <v>1672.041770859689</v>
       </c>
       <c r="C206" t="n">
-        <v>911195946.8454659</v>
+        <v>1672041770.859689</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>911.6016698177973</v>
+        <v>1673.676223783464</v>
       </c>
       <c r="C207" t="n">
-        <v>911601669.8177973</v>
+        <v>1673676223.783464</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>912.0055982791571</v>
+        <v>1675.304316939677</v>
       </c>
       <c r="C208" t="n">
-        <v>912005598.279157</v>
+        <v>1675304316.939677</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>912.4077488182326</v>
+        <v>1676.926105738104</v>
       </c>
       <c r="C209" t="n">
-        <v>912407748.8182325</v>
+        <v>1676926105.738104</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>912.8081377911573</v>
+        <v>1678.541644841175</v>
       </c>
       <c r="C210" t="n">
-        <v>912808137.7911572</v>
+        <v>1678541644.841175</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>913.2067813258711</v>
+        <v>1680.150988177591</v>
       </c>
       <c r="C211" t="n">
-        <v>913206781.3258711</v>
+        <v>1680150988.177591</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>913.6036953263779</v>
+        <v>1681.754188955623</v>
       </c>
       <c r="C212" t="n">
-        <v>913603695.3263779</v>
+        <v>1681754188.955623</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>913.9988954769032</v>
+        <v>1683.351299676115</v>
       </c>
       <c r="C213" t="n">
-        <v>913998895.4769032</v>
+        <v>1683351299.676115</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>914.3923972459573</v>
+        <v>1684.942372145186</v>
       </c>
       <c r="C214" t="n">
-        <v>914392397.2459574</v>
+        <v>1684942372.145185</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>914.7842158903026</v>
+        <v>1686.527457486648</v>
       </c>
       <c r="C215" t="n">
-        <v>914784215.8903025</v>
+        <v>1686527457.486648</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>915.1743664588305</v>
+        <v>1688.106606154146</v>
       </c>
       <c r="C216" t="n">
-        <v>915174366.4588305</v>
+        <v>1688106606.154145</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>915.5628637963492</v>
+        <v>1689.679867943022</v>
       </c>
       <c r="C217" t="n">
-        <v>915562863.7963493</v>
+        <v>1689679867.943022</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>915.9497225472865</v>
+        <v>1691.247292001923</v>
       </c>
       <c r="C218" t="n">
-        <v>915949722.5472865</v>
+        <v>1691247292.001923</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>916.3349571593064</v>
+        <v>1692.808926844141</v>
       </c>
       <c r="C219" t="n">
-        <v>916334957.1593064</v>
+        <v>1692808926.844141</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>916.7185818868463</v>
+        <v>1694.364820358711</v>
       </c>
       <c r="C220" t="n">
-        <v>916718581.8868463</v>
+        <v>1694364820.358711</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>917.1006107945733</v>
+        <v>1695.915019821263</v>
       </c>
       <c r="C221" t="n">
-        <v>917100610.7945733</v>
+        <v>1695915019.821263</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>917.4810577607636</v>
+        <v>1697.459571904636</v>
       </c>
       <c r="C222" t="n">
-        <v>917481057.7607636</v>
+        <v>1697459571.904636</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>917.8599364806073</v>
+        <v>1698.998522689264</v>
       </c>
       <c r="C223" t="n">
-        <v>917859936.4806073</v>
+        <v>1698998522.689264</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>918.2372604694385</v>
+        <v>1700.53191767333</v>
       </c>
       <c r="C224" t="n">
-        <v>918237260.4694386</v>
+        <v>1700531917.67333</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>918.6130430658958</v>
+        <v>1702.059801782709</v>
       </c>
       <c r="C225" t="n">
-        <v>918613043.0658958</v>
+        <v>1702059801.782709</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>918.9872974350124</v>
+        <v>1703.582219380693</v>
       </c>
       <c r="C226" t="n">
-        <v>918987297.4350123</v>
+        <v>1703582219.380693</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>919.3600365712384</v>
+        <v>1705.099214277513</v>
       </c>
       <c r="C227" t="n">
-        <v>919360036.5712384</v>
+        <v>1705099214.277513</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>919.7312733013986</v>
+        <v>1706.610829739647</v>
       </c>
       <c r="C228" t="n">
-        <v>919731273.3013985</v>
+        <v>1706610829.739647</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>920.1010202875844</v>
+        <v>1708.117108498948</v>
       </c>
       <c r="C229" t="n">
-        <v>920101020.2875844</v>
+        <v>1708117108.498948</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>920.4692900299852</v>
+        <v>1709.618092761561</v>
       </c>
       <c r="C230" t="n">
-        <v>920469290.0299852</v>
+        <v>1709618092.761561</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>920.8360948696571</v>
+        <v>1711.113824216672</v>
       </c>
       <c r="C231" t="n">
-        <v>920836094.8696572</v>
+        <v>1711113824.216672</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>921.201446991234</v>
+        <v>1712.604344045053</v>
       </c>
       <c r="C232" t="n">
-        <v>921201446.9912339</v>
+        <v>1712604344.045053</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>921.5653584255799</v>
+        <v>1714.08969292745</v>
       </c>
       <c r="C233" t="n">
-        <v>921565358.4255799</v>
+        <v>1714089692.927449</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>921.9278410523854</v>
+        <v>1715.569911052779</v>
       </c>
       <c r="C234" t="n">
-        <v>921927841.0523853</v>
+        <v>1715569911.052779</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>922.2889066027093</v>
+        <v>1717.045038126168</v>
       </c>
       <c r="C235" t="n">
-        <v>922288906.6027093</v>
+        <v>1717045038.126168</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>922.6485666614668</v>
+        <v>1718.515113376823</v>
       </c>
       <c r="C236" t="n">
-        <v>922648566.6614668</v>
+        <v>1718515113.376823</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>923.0068326698657</v>
+        <v>1719.980175565738</v>
       </c>
       <c r="C237" t="n">
-        <v>923006832.6698657</v>
+        <v>1719980175.565738</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>923.3637159277914</v>
+        <v>1721.440262993245</v>
       </c>
       <c r="C238" t="n">
-        <v>923363715.9277915</v>
+        <v>1721440262.993245</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>923.7192275961426</v>
+        <v>1722.895413506418</v>
       </c>
       <c r="C239" t="n">
-        <v>923719227.5961425</v>
+        <v>1722895413.506418</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>924.0733786991198</v>
+        <v>1724.345664506316</v>
       </c>
       <c r="C240" t="n">
-        <v>924073378.6991198</v>
+        <v>1724345664.506316</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>924.4261801264639</v>
+        <v>1725.79105295509</v>
       </c>
       <c r="C241" t="n">
-        <v>924426180.1264639</v>
+        <v>1725791052.95509</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>924.777642635653</v>
+        <v>1727.231615382942</v>
       </c>
       <c r="C242" t="n">
-        <v>924777642.635653</v>
+        <v>1727231615.382941</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>925.1277768540499</v>
+        <v>1728.667387894948</v>
       </c>
       <c r="C243" t="n">
-        <v>925127776.8540499</v>
+        <v>1728667387.894948</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>925.47659328101</v>
+        <v>1730.098406177747</v>
       </c>
       <c r="C244" t="n">
-        <v>925476593.2810099</v>
+        <v>1730098406.177747</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>925.8241022899429</v>
+        <v>1731.524705506092</v>
       </c>
       <c r="C245" t="n">
-        <v>925824102.2899429</v>
+        <v>1731524705.506092</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>926.1703141303359</v>
+        <v>1732.946320749276</v>
       </c>
       <c r="C246" t="n">
-        <v>926170314.1303359</v>
+        <v>1732946320.749276</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>926.5152389297339</v>
+        <v>1734.363286377432</v>
       </c>
       <c r="C247" t="n">
-        <v>926515238.9297339</v>
+        <v>1734363286.377432</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>926.8588866956818</v>
+        <v>1735.775636467708</v>
       </c>
       <c r="C248" t="n">
-        <v>926858886.6956818</v>
+        <v>1735775636.467708</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>927.201267317627</v>
+        <v>1737.183404710323</v>
       </c>
       <c r="C249" t="n">
-        <v>927201267.317627</v>
+        <v>1737183404.710323</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>927.5423905687846</v>
+        <v>1738.586624414507</v>
       </c>
       <c r="C250" t="n">
-        <v>927542390.5687846</v>
+        <v>1738586624.414507</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>927.882266107966</v>
+        <v>1739.985328514322</v>
       </c>
       <c r="C251" t="n">
-        <v>927882266.1079659</v>
+        <v>1739985328.514322</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>928.2209034813708</v>
+        <v>1741.379549574376</v>
       </c>
       <c r="C252" t="n">
-        <v>928220903.4813708</v>
+        <v>1741379549.574376</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>929.0621415909161</v>
+        <v>1744.845699362442</v>
       </c>
       <c r="C253" t="n">
-        <v>929062141.5909162</v>
+        <v>1744845699.362442</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>929.8958443144908</v>
+        <v>1748.28452387464</v>
       </c>
       <c r="C254" t="n">
-        <v>929895844.3144908</v>
+        <v>1748284523.87464</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>930.7221520283052</v>
+        <v>1751.696503076119</v>
       </c>
       <c r="C255" t="n">
-        <v>930722152.0283052</v>
+        <v>1751696503.076119</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>931.5412011620896</v>
+        <v>1755.082103944484</v>
       </c>
       <c r="C256" t="n">
-        <v>931541201.1620896</v>
+        <v>1755082103.944484</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>932.3531243467585</v>
+        <v>1758.441780942184</v>
       </c>
       <c r="C257" t="n">
-        <v>932353124.3467585</v>
+        <v>1758441780.942184</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>933.1580505552034</v>
+        <v>1761.775976467397</v>
       </c>
       <c r="C258" t="n">
-        <v>933158050.5552034</v>
+        <v>1761775976.467396</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>933.9561052365925</v>
+        <v>1765.085121284594</v>
       </c>
       <c r="C259" t="n">
-        <v>933956105.2365925</v>
+        <v>1765085121.284594</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>934.7474104445371</v>
+        <v>1768.36963493587</v>
       </c>
       <c r="C260" t="n">
-        <v>934747410.444537</v>
+        <v>1768369634.93587</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>935.5320849594568</v>
+        <v>1771.629926134077</v>
       </c>
       <c r="C261" t="n">
-        <v>935532084.9594568</v>
+        <v>1771629926.134077</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>936.3102444054589</v>
+        <v>1774.866393138712</v>
       </c>
       <c r="C262" t="n">
-        <v>936310244.4054589</v>
+        <v>1774866393.138712</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>937.0820013620214</v>
+        <v>1778.079424115484</v>
       </c>
       <c r="C263" t="n">
-        <v>937082001.3620214</v>
+        <v>1778079424.115484</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>937.8474654707609</v>
+        <v>1781.269397480391</v>
       </c>
       <c r="C264" t="n">
-        <v>937847465.4707608</v>
+        <v>1781269397.480391</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>938.6067435375378</v>
+        <v>1784.436682229113</v>
       </c>
       <c r="C265" t="n">
-        <v>938606743.5375378</v>
+        <v>1784436682.229113</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>939.3599396301456</v>
+        <v>1787.581638252475</v>
       </c>
       <c r="C266" t="n">
-        <v>939359939.6301457</v>
+        <v>1787581638.252475</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>940.1071551718103</v>
+        <v>1790.704616638683</v>
       </c>
       <c r="C267" t="n">
-        <v>940107155.1718103</v>
+        <v>1790704616.638683</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>940.8484890307152</v>
+        <v>1793.805959962991</v>
       </c>
       <c r="C268" t="n">
-        <v>940848489.0307152</v>
+        <v>1793805959.962991</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>941.5840376057521</v>
+        <v>1796.886002565436</v>
       </c>
       <c r="C269" t="n">
-        <v>941584037.6057521</v>
+        <v>1796886002.565436</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>942.3138949086895</v>
+        <v>1799.945070817224</v>
       </c>
       <c r="C270" t="n">
-        <v>942313894.9086895</v>
+        <v>1799945070.817224</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>943.0381526429354</v>
+        <v>1802.983483376323</v>
       </c>
       <c r="C271" t="n">
-        <v>943038152.6429354</v>
+        <v>1802983483.376323</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>943.756900279065</v>
+        <v>1806.001551432784</v>
       </c>
       <c r="C272" t="n">
-        <v>943756900.279065</v>
+        <v>1806001551.432784</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>944.4702251272686</v>
+        <v>1808.999578944294</v>
       </c>
       <c r="C273" t="n">
-        <v>944470225.1272686</v>
+        <v>1808999578.944294</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>945.1782124068742</v>
+        <v>1811.977862862416</v>
       </c>
       <c r="C274" t="n">
-        <v>945178212.4068742</v>
+        <v>1811977862.862417</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>945.8809453130818</v>
+        <v>1814.936693349968</v>
       </c>
       <c r="C275" t="n">
-        <v>945880945.3130819</v>
+        <v>1814936693.349968</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>946.5785050810451</v>
+        <v>1817.876353989943</v>
       </c>
       <c r="C276" t="n">
-        <v>946578505.0810452</v>
+        <v>1817876353.989943</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>947.2709710474255</v>
+        <v>1820.797121986379</v>
       </c>
       <c r="C277" t="n">
-        <v>947270971.0474255</v>
+        <v>1820797121.986379</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>947.9584207095384</v>
+        <v>1823.699268357548</v>
       </c>
       <c r="C278" t="n">
-        <v>947958420.7095383</v>
+        <v>1823699268.357548</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>948.6409297822026</v>
+        <v>1826.583058121801</v>
       </c>
       <c r="C279" t="n">
-        <v>948640929.7822026</v>
+        <v>1826583058.121801</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>949.3185722524029</v>
+        <v>1829.44875047643</v>
       </c>
       <c r="C280" t="n">
-        <v>949318572.2524029</v>
+        <v>1829448750.47643</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>949.9914204318602</v>
+        <v>1832.296598969835</v>
       </c>
       <c r="C281" t="n">
-        <v>949991420.4318602</v>
+        <v>1832296598.969836</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>950.6595450076121</v>
+        <v>1835.126851667316</v>
       </c>
       <c r="C282" t="n">
-        <v>950659545.0076121</v>
+        <v>1835126851.667316</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>951.3230150906878</v>
+        <v>1837.939751310761</v>
       </c>
       <c r="C283" t="n">
-        <v>951323015.0906879</v>
+        <v>1837939751.310761</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>951.9818982629675</v>
+        <v>1840.735535472509</v>
       </c>
       <c r="C284" t="n">
-        <v>951981898.2629676</v>
+        <v>1840735535.472509</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>952.6362606223033</v>
+        <v>1843.514436703634</v>
       </c>
       <c r="C285" t="n">
-        <v>952636260.6223034</v>
+        <v>1843514436.703634</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>953.2861668259821</v>
+        <v>1846.276682676897</v>
       </c>
       <c r="C286" t="n">
-        <v>953286166.8259821</v>
+        <v>1846276682.676897</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>953.931680132602</v>
+        <v>1849.022496324597</v>
       </c>
       <c r="C287" t="n">
-        <v>953931680.132602</v>
+        <v>1849022496.324597</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>954.5728624424293</v>
+        <v>1851.752095971536</v>
       </c>
       <c r="C288" t="n">
-        <v>954572862.4424293</v>
+        <v>1851752095.971536</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>955.2097743363064</v>
+        <v>1854.465695463311</v>
       </c>
       <c r="C289" t="n">
-        <v>955209774.3363065</v>
+        <v>1854465695.463311</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>955.8424751131691</v>
+        <v>1857.163504290122</v>
       </c>
       <c r="C290" t="n">
-        <v>955842475.1131692</v>
+        <v>1857163504.290122</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>956.4710228262327</v>
+        <v>1859.845727706289</v>
       </c>
       <c r="C291" t="n">
-        <v>956471022.8262327</v>
+        <v>1859845727.706289</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>957.095474317907</v>
+        <v>1862.512566845663</v>
       </c>
       <c r="C292" t="n">
-        <v>957095474.317907</v>
+        <v>1862512566.845663</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>957.7158852534891</v>
+        <v>1865.164218833081</v>
       </c>
       <c r="C293" t="n">
-        <v>957715885.2534891</v>
+        <v>1865164218.833081</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>958.3323101536879</v>
+        <v>1867.800876892052</v>
       </c>
       <c r="C294" t="n">
-        <v>958332310.153688</v>
+        <v>1867800876.892052</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>958.9448024260279</v>
+        <v>1870.422730448806</v>
       </c>
       <c r="C295" t="n">
-        <v>958944802.4260279</v>
+        <v>1870422730.448806</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>959.5534143951782</v>
+        <v>1873.029965232868</v>
       </c>
       <c r="C296" t="n">
-        <v>959553414.3951782</v>
+        <v>1873029965.232868</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>960.1581973322515</v>
+        <v>1875.622763374286</v>
       </c>
       <c r="C297" t="n">
-        <v>960158197.3322514</v>
+        <v>1875622763.374286</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>960.7592014831138</v>
+        <v>1878.201303497654</v>
       </c>
       <c r="C298" t="n">
-        <v>960759201.4831138</v>
+        <v>1878201303.497654</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>961.3564760957458</v>
+        <v>1880.765760813055</v>
       </c>
       <c r="C299" t="n">
-        <v>961356476.0957458</v>
+        <v>1880765760.813055</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>961.9500694466933</v>
+        <v>1883.316307204036</v>
       </c>
       <c r="C300" t="n">
-        <v>961950069.4466933</v>
+        <v>1883316307.204036</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>962.5400288666424</v>
+        <v>1885.853111312753</v>
       </c>
       <c r="C301" t="n">
-        <v>962540028.8666424</v>
+        <v>1885853111.312753</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>963.1264007651564</v>
+        <v>1888.376338622366</v>
       </c>
       <c r="C302" t="n">
-        <v>963126400.7651564</v>
+        <v>1888376338.622366</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>963.709230654604</v>
+        <v>1890.88615153682</v>
       </c>
       <c r="C303" t="n">
-        <v>963709230.654604</v>
+        <v>1890886151.53682</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>964.2885631733129</v>
+        <v>1893.382709458085</v>
       </c>
       <c r="C304" t="n">
-        <v>964288563.1733129</v>
+        <v>1893382709.458085</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>964.864442107978</v>
+        <v>1895.866168860975</v>
       </c>
       <c r="C305" t="n">
-        <v>964864442.107978</v>
+        <v>1895866168.860976</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>965.4369104153521</v>
+        <v>1898.336683365624</v>
       </c>
       <c r="C306" t="n">
-        <v>965436910.4153521</v>
+        <v>1898336683.365624</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>966.0060102432483</v>
+        <v>1900.794403807702</v>
       </c>
       <c r="C307" t="n">
-        <v>966006010.2432482</v>
+        <v>1900794403.807702</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>966.5717829508783</v>
+        <v>1903.239478306476</v>
       </c>
       <c r="C308" t="n">
-        <v>966571782.9508783</v>
+        <v>1903239478.306476</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>967.1342691285536</v>
+        <v>1905.672052330777</v>
       </c>
       <c r="C309" t="n">
-        <v>967134269.1285536</v>
+        <v>1905672052.330776</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>967.6935086167714</v>
+        <v>1908.092268762952</v>
       </c>
       <c r="C310" t="n">
-        <v>967693508.6167713</v>
+        <v>1908092268.762952</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>968.2495405247106</v>
+        <v>1910.500267960887</v>
       </c>
       <c r="C311" t="n">
-        <v>968249540.5247107</v>
+        <v>1910500267.960887</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>968.802403248157</v>
+        <v>1912.89618781816</v>
       </c>
       <c r="C312" t="n">
-        <v>968802403.248157</v>
+        <v>1912896187.81816</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>969.3521344868818</v>
+        <v>1915.280163822392</v>
       </c>
       <c r="C313" t="n">
-        <v>969352134.4868819</v>
+        <v>1915280163.822392</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>969.89877126149</v>
+        <v>1917.652329111866</v>
       </c>
       <c r="C314" t="n">
-        <v>969898771.26149</v>
+        <v>1917652329.111866</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>970.4423499297609</v>
+        <v>1920.012814530476</v>
       </c>
       <c r="C315" t="n">
-        <v>970442349.9297609</v>
+        <v>1920012814.530476</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>970.982906202498</v>
+        <v>1922.361748681056</v>
       </c>
       <c r="C316" t="n">
-        <v>970982906.2024981</v>
+        <v>1922361748.681056</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>971.520475158905</v>
+        <v>1924.699257977159</v>
       </c>
       <c r="C317" t="n">
-        <v>971520475.158905</v>
+        <v>1924699257.977159</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>972.0550912615063</v>
+        <v>1927.02546669333</v>
       </c>
       <c r="C318" t="n">
-        <v>972055091.2615063</v>
+        <v>1927025466.69333</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>972.586788370627</v>
+        <v>1929.340497013932</v>
       </c>
       <c r="C319" t="n">
-        <v>972586788.370627</v>
+        <v>1929340497.013932</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>973.1155997584491</v>
+        <v>1931.644469080572</v>
       </c>
       <c r="C320" t="n">
-        <v>973115599.7584491</v>
+        <v>1931644469.080572</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>973.6415581226578</v>
+        <v>1933.937501038173</v>
       </c>
       <c r="C321" t="n">
-        <v>973641558.1226578</v>
+        <v>1933937501.038173</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>974.1646955996925</v>
+        <v>1936.219709079745</v>
       </c>
       <c r="C322" t="n">
-        <v>974164695.5996926</v>
+        <v>1936219709.079745</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>974.6850437776161</v>
+        <v>1938.491207489895</v>
       </c>
       <c r="C323" t="n">
-        <v>974685043.7776161</v>
+        <v>1938491207.489895</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>975.2026337086162</v>
+        <v>1940.752108687115</v>
       </c>
       <c r="C324" t="n">
-        <v>975202633.7086161</v>
+        <v>1940752108.687115</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>975.7174959211499</v>
+        <v>1943.002523264899</v>
       </c>
       <c r="C325" t="n">
-        <v>975717495.9211498</v>
+        <v>1943002523.264899</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>976.2296604317456</v>
+        <v>1945.242560031718</v>
       </c>
       <c r="C326" t="n">
-        <v>976229660.4317456</v>
+        <v>1945242560.031718</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>976.7391567564731</v>
+        <v>1947.472326049897</v>
       </c>
       <c r="C327" t="n">
-        <v>976739156.7564731</v>
+        <v>1947472326.049897</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>977.2460139220909</v>
+        <v>1949.691926673427</v>
       </c>
       <c r="C328" t="n">
-        <v>977246013.9220909</v>
+        <v>1949691926.673427</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>977.7502604768855</v>
+        <v>1951.901465584753</v>
       </c>
       <c r="C329" t="n">
-        <v>977750260.4768856</v>
+        <v>1951901465.584753</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>978.2519245012104</v>
+        <v>1954.101044830558</v>
       </c>
       <c r="C330" t="n">
-        <v>978251924.5012105</v>
+        <v>1954101044.830558</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>978.7510336177336</v>
+        <v>1956.290764856597</v>
       </c>
       <c r="C331" t="n">
-        <v>978751033.6177336</v>
+        <v>1956290764.856597</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>979.2476150014077</v>
+        <v>1958.470724541588</v>
       </c>
       <c r="C332" t="n">
-        <v>979247615.0014076</v>
+        <v>1958470724.541588</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>979.741695389166</v>
+        <v>1960.641021230211</v>
       </c>
       <c r="C333" t="n">
-        <v>979741695.389166</v>
+        <v>1960641021.230211</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>980.2333010893581</v>
+        <v>1962.801750765222</v>
       </c>
       <c r="C334" t="n">
-        <v>980233301.0893581</v>
+        <v>1962801750.765222</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>980.722457990931</v>
+        <v>1964.953007518739</v>
       </c>
       <c r="C335" t="n">
-        <v>980722457.990931</v>
+        <v>1964953007.518739</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>981.2091915723645</v>
+        <v>1967.094884422694</v>
       </c>
       <c r="C336" t="n">
-        <v>981209191.5723644</v>
+        <v>1967094884.422694</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>981.693526910369</v>
+        <v>1969.2274729985</v>
       </c>
       <c r="C337" t="n">
-        <v>981693526.9103689</v>
+        <v>1969227472.9985</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>982.1754886883531</v>
+        <v>1971.350863385952</v>
       </c>
       <c r="C338" t="n">
-        <v>982175488.6883531</v>
+        <v>1971350863.385952</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>982.6551012046683</v>
+        <v>1973.46514437138</v>
       </c>
       <c r="C339" t="n">
-        <v>982655101.2046683</v>
+        <v>1973465144.37138</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>983.1323883806377</v>
+        <v>1975.57040341508</v>
       </c>
       <c r="C340" t="n">
-        <v>983132388.3806378</v>
+        <v>1975570403.41508</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>983.6073737683754</v>
+        <v>1977.666726678053</v>
       </c>
       <c r="C341" t="n">
-        <v>983607373.7683754</v>
+        <v>1977666726.678053</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>984.0800805584037</v>
+        <v>1979.754199048059</v>
       </c>
       <c r="C342" t="n">
-        <v>984080080.5584036</v>
+        <v>1979754199.048059</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>984.5505315870743</v>
+        <v>1981.83290416502</v>
       </c>
       <c r="C343" t="n">
-        <v>984550531.5870743</v>
+        <v>1981832904.16502</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>985.0187493437976</v>
+        <v>1983.902924445786</v>
       </c>
       <c r="C344" t="n">
-        <v>985018749.3437976</v>
+        <v>1983902924.445786</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>985.4847559780902</v>
+        <v>1985.964341108276</v>
       </c>
       <c r="C345" t="n">
-        <v>985484755.9780902</v>
+        <v>1985964341.108276</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>985.9485733064411</v>
+        <v>1988.017234195031</v>
       </c>
       <c r="C346" t="n">
-        <v>985948573.3064411</v>
+        <v>1988017234.195031</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>986.410222819006</v>
+        <v>1990.061682596178</v>
       </c>
       <c r="C347" t="n">
-        <v>986410222.819006</v>
+        <v>1990061682.596178</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>986.8697256861333</v>
+        <v>1992.097764071832</v>
       </c>
       <c r="C348" t="n">
-        <v>986869725.6861333</v>
+        <v>1992097764.071832</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>987.3271027647265</v>
+        <v>1994.125555273954</v>
       </c>
       <c r="C349" t="n">
-        <v>987327102.7647265</v>
+        <v>1994125555.273954</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>987.7823746044494</v>
+        <v>1996.145131767672</v>
       </c>
       <c r="C350" t="n">
-        <v>987782374.6044494</v>
+        <v>1996145131.767672</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>988.2355614537763</v>
+        <v>1998.156568052087</v>
       </c>
       <c r="C351" t="n">
-        <v>988235561.4537764</v>
+        <v>1998156568.052087</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>988.6866832658951</v>
+        <v>2000.159937580588</v>
       </c>
       <c r="C352" t="n">
-        <v>988686683.2658951</v>
+        <v>2000159937.580588</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>989.1357597044649</v>
+        <v>2002.155312780667</v>
       </c>
       <c r="C353" t="n">
-        <v>989135759.7044649</v>
+        <v>2002155312.780667</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>989.5828101492328</v>
+        <v>2004.142765073269</v>
       </c>
       <c r="C354" t="n">
-        <v>989582810.1492329</v>
+        <v>2004142765.073269</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>990.0278537015157</v>
+        <v>2006.122364891685</v>
       </c>
       <c r="C355" t="n">
-        <v>990027853.7015157</v>
+        <v>2006122364.891685</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>990.4709091895489</v>
+        <v>2008.094181699993</v>
       </c>
       <c r="C356" t="n">
-        <v>990470909.189549</v>
+        <v>2008094181.699993</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>990.9119951737072</v>
+        <v>2010.058284011075</v>
       </c>
       <c r="C357" t="n">
-        <v>990911995.1737071</v>
+        <v>2010058284.011075</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>991.3511299516002</v>
+        <v>2012.014739404201</v>
       </c>
       <c r="C358" t="n">
-        <v>991351129.9516002</v>
+        <v>2012014739.404201</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>991.7883315630469</v>
+        <v>2013.963614542217</v>
       </c>
       <c r="C359" t="n">
-        <v>991788331.5630469</v>
+        <v>2013963614.542217</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>992.2236177949331</v>
+        <v>2015.904975188327</v>
       </c>
       <c r="C360" t="n">
-        <v>992223617.7949332</v>
+        <v>2015904975.188327</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>992.6570061859545</v>
+        <v>2017.838886222491</v>
       </c>
       <c r="C361" t="n">
-        <v>992657006.1859546</v>
+        <v>2017838886.222491</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>993.0885140312461</v>
+        <v>2019.765411657449</v>
       </c>
       <c r="C362" t="n">
-        <v>993088514.0312461</v>
+        <v>2019765411.657449</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>993.518158386908</v>
+        <v>2021.684614654375</v>
       </c>
       <c r="C363" t="n">
-        <v>993518158.3869081</v>
+        <v>2021684614.654375</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>993.9459560744231</v>
+        <v>2023.596557538182</v>
       </c>
       <c r="C364" t="n">
-        <v>993945956.0744231</v>
+        <v>2023596557.538182</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>994.3719236849721</v>
+        <v>2025.501301812476</v>
       </c>
       <c r="C365" t="n">
-        <v>994371923.684972</v>
+        <v>2025501301.812476</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>994.7960775836531</v>
+        <v>2027.398908174175</v>
       </c>
       <c r="C366" t="n">
-        <v>994796077.5836531</v>
+        <v>2027398908.174175</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>995.2184339135998</v>
+        <v>2029.289436527803</v>
       </c>
       <c r="C367" t="n">
-        <v>995218433.9135998</v>
+        <v>2029289436.527803</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>995.6390086000096</v>
+        <v>2031.172945999464</v>
       </c>
       <c r="C368" t="n">
-        <v>995639008.6000096</v>
+        <v>2031172945.999464</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>996.0578173540782</v>
+        <v>2033.049494950505</v>
       </c>
       <c r="C369" t="n">
-        <v>996057817.3540782</v>
+        <v>2033049494.950505</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>996.4748756768472</v>
+        <v>2034.919140990879</v>
       </c>
       <c r="C370" t="n">
-        <v>996474875.6768472</v>
+        <v>2034919140.99088</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>996.890198862963</v>
+        <v>2036.781940992215</v>
       </c>
       <c r="C371" t="n">
-        <v>996890198.862963</v>
+        <v>2036781940.992215</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>997.3038020043535</v>
+        <v>2038.637951100601</v>
       </c>
       <c r="C372" t="n">
-        <v>997303802.0043535</v>
+        <v>2038637951.1006</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>997.7156999938223</v>
+        <v>2040.487226749085</v>
       </c>
       <c r="C373" t="n">
-        <v>997715699.9938223</v>
+        <v>2040487226.749085</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>998.1259075285627</v>
+        <v>2042.329822669918</v>
       </c>
       <c r="C374" t="n">
-        <v>998125907.5285627</v>
+        <v>2042329822.669918</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>998.5344391135955</v>
+        <v>2044.165792906514</v>
       </c>
       <c r="C375" t="n">
-        <v>998534439.1135955</v>
+        <v>2044165792.906514</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>998.9413090651292</v>
+        <v>2045.995190825169</v>
       </c>
       <c r="C376" t="n">
-        <v>998941309.0651292</v>
+        <v>2045995190.825169</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>999.3465315138495</v>
+        <v>2047.818069126521</v>
       </c>
       <c r="C377" t="n">
-        <v>999346531.5138495</v>
+        <v>2047818069.126521</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>999.7501204081344</v>
+        <v>2049.63447985677</v>
       </c>
       <c r="C378" t="n">
-        <v>999750120.4081345</v>
+        <v>2049634479.85677</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>1000.152089517202</v>
+        <v>2051.444474418656</v>
       </c>
       <c r="C379" t="n">
-        <v>1000152089.517202</v>
+        <v>2051444474.418656</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>1000.552452434187</v>
+        <v>2053.24810358221</v>
       </c>
       <c r="C380" t="n">
-        <v>1000552452.434187</v>
+        <v>2053248103.58221</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>1000.951222579155</v>
+        <v>2055.045417495278</v>
       </c>
       <c r="C381" t="n">
-        <v>1000951222.579155</v>
+        <v>2055045417.495278</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>1001.348413202054</v>
+        <v>2056.836465693821</v>
       </c>
       <c r="C382" t="n">
-        <v>1001348413.202054</v>
+        <v>2056836465.693821</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>1001.744037385591</v>
+        <v>2058.621297112005</v>
       </c>
       <c r="C383" t="n">
-        <v>1001744037.385591</v>
+        <v>2058621297.112005</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>1002.138108048066</v>
+        <v>2060.399960092082</v>
       </c>
       <c r="C384" t="n">
-        <v>1002138108.048066</v>
+        <v>2060399960.092082</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>1002.530637946127</v>
+        <v>2062.172502394062</v>
       </c>
       <c r="C385" t="n">
-        <v>1002530637.946127</v>
+        <v>2062172502.394062</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>1002.921639677487</v>
+        <v>2063.938971205191</v>
       </c>
       <c r="C386" t="n">
-        <v>1002921639.677487</v>
+        <v>2063938971.205191</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>1003.311125683563</v>
+        <v>2065.699413149234</v>
       </c>
       <c r="C387" t="n">
-        <v>1003311125.683563</v>
+        <v>2065699413.149234</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>1003.699108252078</v>
+        <v>2067.453874295566</v>
       </c>
       <c r="C388" t="n">
-        <v>1003699108.252078</v>
+        <v>2067453874.295566</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>1004.0855995196</v>
+        <v>2069.202400168084</v>
       </c>
       <c r="C389" t="n">
-        <v>1004085599.5196</v>
+        <v>2069202400.168084</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>1004.470611474027</v>
+        <v>2070.94503575393</v>
       </c>
       <c r="C390" t="n">
-        <v>1004470611.474027</v>
+        <v>2070945035.75393</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>1004.854155957028</v>
+        <v>2072.68182551205</v>
       </c>
       <c r="C391" t="n">
-        <v>1004854155.957028</v>
+        <v>2072681825.51205</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>1005.236244666426</v>
+        <v>2074.412813381572</v>
       </c>
       <c r="C392" t="n">
-        <v>1005236244.666426</v>
+        <v>2074412813.381572</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>1005.616889158541</v>
+        <v>2076.13804279002</v>
       </c>
       <c r="C393" t="n">
-        <v>1005616889.158541</v>
+        <v>2076138042.79002</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>1005.996100850476</v>
+        <v>2077.857556661365</v>
       </c>
       <c r="C394" t="n">
-        <v>1005996100.850476</v>
+        <v>2077857556.661365</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>1006.373891022364</v>
+        <v>2079.571397423918</v>
       </c>
       <c r="C395" t="n">
-        <v>1006373891.022364</v>
+        <v>2079571397.423918</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>1006.750270819568</v>
+        <v>2081.279607018065</v>
       </c>
       <c r="C396" t="n">
-        <v>1006750270.819568</v>
+        <v>2081279607.018065</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>1007.125251254831</v>
+        <v>2082.982226903849</v>
       </c>
       <c r="C397" t="n">
-        <v>1007125251.254831</v>
+        <v>2082982226.903849</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>1007.498843210393</v>
+        <v>2084.679298068409</v>
       </c>
       <c r="C398" t="n">
-        <v>1007498843.210393</v>
+        <v>2084679298.068408</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>1007.871057440059</v>
+        <v>2086.370861033268</v>
       </c>
       <c r="C399" t="n">
-        <v>1007871057.440059</v>
+        <v>2086370861.033268</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>1008.241904571228</v>
+        <v>2088.056955861485</v>
       </c>
       <c r="C400" t="n">
-        <v>1008241904.571228</v>
+        <v>2088056955.861485</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>1008.611395106879</v>
+        <v>2089.737622164664</v>
       </c>
       <c r="C401" t="n">
-        <v>1008611395.106879</v>
+        <v>2089737622.164664</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>1008.979539427525</v>
+        <v>2091.412899109833</v>
       </c>
       <c r="C402" t="n">
-        <v>1008979539.427525</v>
+        <v>2091412899.109833</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>1009.34634779312</v>
+        <v>2093.082825426185</v>
       </c>
       <c r="C403" t="n">
-        <v>1009346347.79312</v>
+        <v>2093082825.426185</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>1009.711830344936</v>
+        <v>2094.747439411698</v>
       </c>
       <c r="C404" t="n">
-        <v>1009711830.344936</v>
+        <v>2094747439.411698</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>1010.0759971074</v>
+        <v>2096.406778939624</v>
       </c>
       <c r="C405" t="n">
-        <v>1010075997.1074</v>
+        <v>2096406778.939624</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>1010.438857989894</v>
+        <v>2098.060881464852</v>
       </c>
       <c r="C406" t="n">
-        <v>1010438857.989894</v>
+        <v>2098060881.464852</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>1010.800422788524</v>
+        <v>2099.709784030163</v>
       </c>
       <c r="C407" t="n">
-        <v>1010800422.788524</v>
+        <v>2099709784.030163</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>1011.160701187852</v>
+        <v>2101.353523272353</v>
       </c>
       <c r="C408" t="n">
-        <v>1011160701.187852</v>
+        <v>2101353523.272353</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>1011.519702762599</v>
+        <v>2102.992135428252</v>
       </c>
       <c r="C409" t="n">
-        <v>1011519702.762599</v>
+        <v>2102992135.428252</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>1011.877436979307</v>
+        <v>2104.625656340624</v>
       </c>
       <c r="C410" t="n">
-        <v>1011877436.979307</v>
+        <v>2104625656.340624</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>1012.233913197981</v>
+        <v>2106.254121463962</v>
       </c>
       <c r="C411" t="n">
-        <v>1012233913.197981</v>
+        <v>2106254121.463962</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>1012.589140673692</v>
+        <v>2107.877565870177</v>
       </c>
       <c r="C412" t="n">
-        <v>1012589140.673692</v>
+        <v>2107877565.870177</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>1012.943128558149</v>
+        <v>2109.496024254172</v>
       </c>
       <c r="C413" t="n">
-        <v>1012943128.558149</v>
+        <v>2109496024.254172</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>1013.295885901246</v>
+        <v>2111.109530939329</v>
       </c>
       <c r="C414" t="n">
-        <v>1013295885.901246</v>
+        <v>2111109530.939329</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>1013.647421652582</v>
+        <v>2112.718119882882</v>
       </c>
       <c r="C415" t="n">
-        <v>1013647421.652582</v>
+        <v>2112718119.882882</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>1013.997744662942</v>
+        <v>2114.3218246812</v>
       </c>
       <c r="C416" t="n">
-        <v>1013997744.662942</v>
+        <v>2114321824.6812</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>1014.346863685764</v>
+        <v>2115.920678574971</v>
       </c>
       <c r="C417" t="n">
-        <v>1014346863.685763</v>
+        <v>2115920678.574971</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>1014.694787378567</v>
+        <v>2117.514714454295</v>
       </c>
       <c r="C418" t="n">
-        <v>1014694787.378567</v>
+        <v>2117514714.454295</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>1015.041524304362</v>
+        <v>2119.103964863682</v>
       </c>
       <c r="C419" t="n">
-        <v>1015041524.304362</v>
+        <v>2119103964.863682</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>1015.387082933033</v>
+        <v>2120.68846200696</v>
       </c>
       <c r="C420" t="n">
-        <v>1015387082.933033</v>
+        <v>2120688462.00696</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>1015.731471642689</v>
+        <v>2122.268237752102</v>
       </c>
       <c r="C421" t="n">
-        <v>1015731471.642689</v>
+        <v>2122268237.752102</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>1016.074698721</v>
+        <v>2123.843323635956</v>
       </c>
       <c r="C422" t="n">
-        <v>1016074698.721</v>
+        <v>2123843323.635956</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>1016.416772366501</v>
+        <v>2125.413750868902</v>
       </c>
       <c r="C423" t="n">
-        <v>1016416772.366501</v>
+        <v>2125413750.868902</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>1016.757700689876</v>
+        <v>2126.979550339418</v>
       </c>
       <c r="C424" t="n">
-        <v>1016757700.689876</v>
+        <v>2126979550.339418</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>1017.097491715222</v>
+        <v>2128.540752618571</v>
       </c>
       <c r="C425" t="n">
-        <v>1017097491.715222</v>
+        <v>2128540752.618571</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>1017.436153381278</v>
+        <v>2130.097387964429</v>
       </c>
       <c r="C426" t="n">
-        <v>1017436153.381278</v>
+        <v>2130097387.964429</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>1017.773693542652</v>
+        <v>2131.64948632639</v>
       </c>
       <c r="C427" t="n">
-        <v>1017773693.542652</v>
+        <v>2131649486.32639</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>1018.110119971004</v>
+        <v>2133.197077349444</v>
       </c>
       <c r="C428" t="n">
-        <v>1018110119.971004</v>
+        <v>2133197077.349444</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>1018.445440356226</v>
+        <v>2134.740190378356</v>
       </c>
       <c r="C429" t="n">
-        <v>1018445440.356226</v>
+        <v>2134740190.378356</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>1018.779662307592</v>
+        <v>2136.278854461776</v>
       </c>
       <c r="C430" t="n">
-        <v>1018779662.307592</v>
+        <v>2136278854.461776</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>1019.112793354888</v>
+        <v>2137.813098356279</v>
       </c>
       <c r="C431" t="n">
-        <v>1019112793.354888</v>
+        <v>2137813098.356279</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>1019.444840949526</v>
+        <v>2139.34295053034</v>
       </c>
       <c r="C432" t="n">
-        <v>1019444840.949526</v>
+        <v>2139342950.53034</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>1019.775812465635</v>
+        <v>2140.868439168236</v>
       </c>
       <c r="C433" t="n">
-        <v>1019775812.465635</v>
+        <v>2140868439.168236</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>1020.105715201133</v>
+        <v>2142.389592173878</v>
       </c>
       <c r="C434" t="n">
-        <v>1020105715.201133</v>
+        <v>2142389592.173878</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>1020.434556378786</v>
+        <v>2143.906437174589</v>
       </c>
       <c r="C435" t="n">
-        <v>1020434556.378786</v>
+        <v>2143906437.174588</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>1020.762343147239</v>
+        <v>2145.419001524808</v>
       </c>
       <c r="C436" t="n">
-        <v>1020762343.147239</v>
+        <v>2145419001.524808</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>1021.08908258204</v>
+        <v>2146.927312309737</v>
       </c>
       <c r="C437" t="n">
-        <v>1021089082.58204</v>
+        <v>2146927312.309737</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>1021.414781686634</v>
+        <v>2148.431396348924</v>
       </c>
       <c r="C438" t="n">
-        <v>1021414781.686634</v>
+        <v>2148431396.348925</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>1021.739447393354</v>
+        <v>2149.931280199786</v>
       </c>
       <c r="C439" t="n">
-        <v>1021739447.393354</v>
+        <v>2149931280.199786</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>1022.063086564383</v>
+        <v>2151.426990161074</v>
       </c>
       <c r="C440" t="n">
-        <v>1022063086.564383</v>
+        <v>2151426990.161074</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>1022.385705992707</v>
+        <v>2152.918552276282</v>
       </c>
       <c r="C441" t="n">
-        <v>1022385705.992707</v>
+        <v>2152918552.276282</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>1022.707312403049</v>
+        <v>2154.405992336997</v>
       </c>
       <c r="C442" t="n">
-        <v>1022707312.403049</v>
+        <v>2154405992.336998</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>1023.027912452786</v>
+        <v>2155.889335886193</v>
       </c>
       <c r="C443" t="n">
-        <v>1023027912.452786</v>
+        <v>2155889335.886193</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>1023.347512732855</v>
+        <v>2157.368608221474</v>
       </c>
       <c r="C444" t="n">
-        <v>1023347512.732855</v>
+        <v>2157368608.221474</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>1023.666119768638</v>
+        <v>2158.843834398261</v>
       </c>
       <c r="C445" t="n">
-        <v>1023666119.768638</v>
+        <v>2158843834.398261</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>1023.983740020838</v>
+        <v>2160.315039232928</v>
       </c>
       <c r="C446" t="n">
-        <v>1023983740.020838</v>
+        <v>2160315039.232928</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>1024.300379886335</v>
+        <v>2161.782247305888</v>
       </c>
       <c r="C447" t="n">
-        <v>1024300379.886335</v>
+        <v>2161782247.305888</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>1024.616045699034</v>
+        <v>2163.245482964624</v>
       </c>
       <c r="C448" t="n">
-        <v>1024616045.699034</v>
+        <v>2163245482.964624</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>1024.930743730689</v>
+        <v>2164.704770326679</v>
       </c>
       <c r="C449" t="n">
-        <v>1024930743.730689</v>
+        <v>2164704770.326679</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>1025.244480191727</v>
+        <v>2166.16013328259</v>
       </c>
       <c r="C450" t="n">
-        <v>1025244480.191727</v>
+        <v>2166160133.28259</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>1025.557261232045</v>
+        <v>2167.611595498779</v>
       </c>
       <c r="C451" t="n">
-        <v>1025557261.232045</v>
+        <v>2167611595.498779</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>1025.869092941806</v>
+        <v>2169.059180420399</v>
       </c>
       <c r="C452" t="n">
-        <v>1025869092.941806</v>
+        <v>2169059180.420399</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>1026.17998135221</v>
+        <v>2170.502911274126</v>
       </c>
       <c r="C453" t="n">
-        <v>1026179981.35221</v>
+        <v>2170502911.274126</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>1026.489932436263</v>
+        <v>2171.94281107092</v>
       </c>
       <c r="C454" t="n">
-        <v>1026489932.436263</v>
+        <v>2171942811.07092</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>1026.798952109527</v>
+        <v>2173.378902608734</v>
       </c>
       <c r="C455" t="n">
-        <v>1026798952.109527</v>
+        <v>2173378902.608734</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>1027.10704623086</v>
+        <v>2174.811208475175</v>
       </c>
       <c r="C456" t="n">
-        <v>1027107046.23086</v>
+        <v>2174811208.475175</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>1027.414220603145</v>
+        <v>2176.239751050133</v>
       </c>
       <c r="C457" t="n">
-        <v>1027414220.603145</v>
+        <v>2176239751.050133</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>1027.720480974006</v>
+        <v>2177.664552508371</v>
       </c>
       <c r="C458" t="n">
-        <v>1027720480.974006</v>
+        <v>2177664552.508371</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>1028.025833036511</v>
+        <v>2179.085634822056</v>
       </c>
       <c r="C459" t="n">
-        <v>1028025833.036511</v>
+        <v>2179085634.822056</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>1028.33028242987</v>
+        <v>2180.503019763275</v>
       </c>
       <c r="C460" t="n">
-        <v>1028330282.42987</v>
+        <v>2180503019.763275</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>1028.633834740111</v>
+        <v>2181.916728906488</v>
       </c>
       <c r="C461" t="n">
-        <v>1028633834.740111</v>
+        <v>2181916728.906487</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>1028.936495500757</v>
+        <v>2183.326783630967</v>
       </c>
       <c r="C462" t="n">
-        <v>1028936495.500757</v>
+        <v>2183326783.630967</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>1029.238270193486</v>
+        <v>2184.733205123174</v>
       </c>
       <c r="C463" t="n">
-        <v>1029238270.193486</v>
+        <v>2184733205.123174</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>1029.53916424878</v>
+        <v>2186.136014379121</v>
       </c>
       <c r="C464" t="n">
-        <v>1029539164.24878</v>
+        <v>2186136014.379121</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>1029.839183046566</v>
+        <v>2187.535232206681</v>
       </c>
       <c r="C465" t="n">
-        <v>1029839183.046566</v>
+        <v>2187535232.206681</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>1030.138331916848</v>
+        <v>2188.930879227871</v>
       </c>
       <c r="C466" t="n">
-        <v>1030138331.916848</v>
+        <v>2188930879.227871</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>1030.436616140326</v>
+        <v>2190.322975881098</v>
       </c>
       <c r="C467" t="n">
-        <v>1030436616.140326</v>
+        <v>2190322975.881098</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>1030.734040949008</v>
+        <v>2191.711542423369</v>
       </c>
       <c r="C468" t="n">
-        <v>1030734040.949008</v>
+        <v>2191711542.423369</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>1031.030611526808</v>
+        <v>2193.096598932471</v>
       </c>
       <c r="C469" t="n">
-        <v>1031030611.526808</v>
+        <v>2193096598.932471</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>1031.326333010143</v>
+        <v>2194.478165309115</v>
       </c>
       <c r="C470" t="n">
-        <v>1031326333.010143</v>
+        <v>2194478165.309115</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>1031.621210488516</v>
+        <v>2195.856261279048</v>
       </c>
       <c r="C471" t="n">
-        <v>1031621210.488515</v>
+        <v>2195856261.279048</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>1031.915249005083</v>
+        <v>2197.230906395137</v>
       </c>
       <c r="C472" t="n">
-        <v>1031915249.005083</v>
+        <v>2197230906.395137</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>1032.208453557227</v>
+        <v>2198.602120039416</v>
       </c>
       <c r="C473" t="n">
-        <v>1032208453.557227</v>
+        <v>2198602120.039416</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>1032.500829097109</v>
+        <v>2199.969921425105</v>
       </c>
       <c r="C474" t="n">
-        <v>1032500829.097109</v>
+        <v>2199969921.425106</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>1032.792380532219</v>
+        <v>2201.334329598604</v>
       </c>
       <c r="C475" t="n">
-        <v>1032792380.532219</v>
+        <v>2201334329.598604</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>1033.083112725914</v>
+        <v>2202.695363441445</v>
       </c>
       <c r="C476" t="n">
-        <v>1033083112.725914</v>
+        <v>2202695363.441445</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>1033.37303049795</v>
+        <v>2204.05304167223</v>
       </c>
       <c r="C477" t="n">
-        <v>1033373030.49795</v>
+        <v>2204053041.67223</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>1033.662138625009</v>
+        <v>2205.407382848531</v>
       </c>
       <c r="C478" t="n">
-        <v>1033662138.625009</v>
+        <v>2205407382.848531</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>1033.950441841207</v>
+        <v>2206.75840536876</v>
       </c>
       <c r="C479" t="n">
-        <v>1033950441.841207</v>
+        <v>2206758405.36876</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>1034.23794483861</v>
+        <v>2208.106127474022</v>
       </c>
       <c r="C480" t="n">
-        <v>1034237944.83861</v>
+        <v>2208106127.474022</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>1034.524652267733</v>
+        <v>2209.450567249933</v>
       </c>
       <c r="C481" t="n">
-        <v>1034524652.267733</v>
+        <v>2209450567.249933</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>1034.810568738026</v>
+        <v>2210.79174262841</v>
       </c>
       <c r="C482" t="n">
-        <v>1034810568.738026</v>
+        <v>2210791742.62841</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>1035.09569881837</v>
+        <v>2212.129671389443</v>
       </c>
       <c r="C483" t="n">
-        <v>1035095698.81837</v>
+        <v>2212129671.389443</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>1035.380047037549</v>
+        <v>2213.464371162833</v>
       </c>
       <c r="C484" t="n">
-        <v>1035380047.037549</v>
+        <v>2213464371.162833</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>1035.663617884722</v>
+        <v>2214.795859429911</v>
       </c>
       <c r="C485" t="n">
-        <v>1035663617.884722</v>
+        <v>2214795859.429911</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>1035.946415809888</v>
+        <v>2216.124153525228</v>
       </c>
       <c r="C486" t="n">
-        <v>1035946415.809888</v>
+        <v>2216124153.525228</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>1036.228445224345</v>
+        <v>2217.449270638225</v>
       </c>
       <c r="C487" t="n">
-        <v>1036228445.224345</v>
+        <v>2217449270.638225</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>1036.509710501141</v>
+        <v>2218.771227814874</v>
       </c>
       <c r="C488" t="n">
-        <v>1036509710.501141</v>
+        <v>2218771227.814874</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>1036.790215975516</v>
+        <v>2220.090041959299</v>
       </c>
       <c r="C489" t="n">
-        <v>1036790215.975516</v>
+        <v>2220090041.9593</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>1037.06996594534</v>
+        <v>2221.405729835375</v>
       </c>
       <c r="C490" t="n">
-        <v>1037069965.94534</v>
+        <v>2221405729.835375</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>1037.348964671548</v>
+        <v>2222.7183080683</v>
       </c>
       <c r="C491" t="n">
-        <v>1037348964.671548</v>
+        <v>2222718308.0683</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>1037.627216378563</v>
+        <v>2224.027793146149</v>
       </c>
       <c r="C492" t="n">
-        <v>1037627216.378563</v>
+        <v>2224027793.146149</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>1038.181495452649</v>
+        <v>2226.637549112459</v>
       </c>
       <c r="C493" t="n">
-        <v>1038181495.452649</v>
+        <v>2226637549.112459</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>1038.732836248521</v>
+        <v>2229.235126954053</v>
       </c>
       <c r="C494" t="n">
-        <v>1038732836.248521</v>
+        <v>2229235126.954053</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>1039.281271289118</v>
+        <v>2231.82065379244</v>
       </c>
       <c r="C495" t="n">
-        <v>1039281271.289118</v>
+        <v>2231820653.79244</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>1039.826832551976</v>
+        <v>2234.394254696865</v>
       </c>
       <c r="C496" t="n">
-        <v>1039826832.551976</v>
+        <v>2234394254.696865</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>1040.369551481447</v>
+        <v>2236.956052729017</v>
       </c>
       <c r="C497" t="n">
-        <v>1040369551.481447</v>
+        <v>2236956052.729017</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>1040.909459000572</v>
+        <v>2239.506168986509</v>
       </c>
       <c r="C498" t="n">
-        <v>1040909459.000572</v>
+        <v>2239506168.986509</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>1041.446585522638</v>
+        <v>2242.044722645185</v>
       </c>
       <c r="C499" t="n">
-        <v>1041446585.522638</v>
+        <v>2242044722.645185</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>1041.980960962397</v>
+        <v>2244.57183100027</v>
       </c>
       <c r="C500" t="n">
-        <v>1041980960.962397</v>
+        <v>2244571831.00027</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>1042.512614746992</v>
+        <v>2247.087609506425</v>
       </c>
       <c r="C501" t="n">
-        <v>1042512614.746992</v>
+        <v>2247087609.506424</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>1043.041575826576</v>
+        <v>2249.592171816722</v>
       </c>
       <c r="C502" t="n">
-        <v>1043041575.826576</v>
+        <v>2249592171.816722</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>1043.567872684643</v>
+        <v>2252.085629820588</v>
       </c>
       <c r="C503" t="n">
-        <v>1043567872.684643</v>
+        <v>2252085629.820588</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>1044.091533348081</v>
+        <v>2254.568093680741</v>
       </c>
       <c r="C504" t="n">
-        <v>1044091533.348081</v>
+        <v>2254568093.680741</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>1044.612585396955</v>
+        <v>2257.039671869154</v>
       </c>
       <c r="C505" t="n">
-        <v>1044612585.396955</v>
+        <v>2257039671.869153</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>1045.131055974027</v>
+        <v>2259.500471202083</v>
       </c>
       <c r="C506" t="n">
-        <v>1045131055.974027</v>
+        <v>2259500471.202083</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>1045.646971794021</v>
+        <v>2261.950596874179</v>
       </c>
       <c r="C507" t="n">
-        <v>1045646971.794021</v>
+        <v>2261950596.874179</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>1046.160359152647</v>
+        <v>2264.390152491717</v>
       </c>
       <c r="C508" t="n">
-        <v>1046160359.152647</v>
+        <v>2264390152.491717</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>1046.671243935384</v>
+        <v>2266.819240104971</v>
       </c>
       <c r="C509" t="n">
-        <v>1046671243.935384</v>
+        <v>2266819240.104971</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>1047.179651626033</v>
+        <v>2269.23796023976</v>
       </c>
       <c r="C510" t="n">
-        <v>1047179651.626033</v>
+        <v>2269237960.23976</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>1047.685607315052</v>
+        <v>2271.646411928191</v>
       </c>
       <c r="C511" t="n">
-        <v>1047685607.315052</v>
+        <v>2271646411.928191</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>1048.189135707668</v>
+        <v>2274.044692738617</v>
       </c>
       <c r="C512" t="n">
-        <v>1048189135.707668</v>
+        <v>2274044692.738617</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>1048.690261131783</v>
+        <v>2276.432898804854</v>
       </c>
       <c r="C513" t="n">
-        <v>1048690261.131783</v>
+        <v>2276432898.804854</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>1049.189007545679</v>
+        <v>2278.811124854645</v>
       </c>
       <c r="C514" t="n">
-        <v>1049189007.545679</v>
+        <v>2278811124.854645</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>1049.685398545528</v>
+        <v>2281.179464237435</v>
       </c>
       <c r="C515" t="n">
-        <v>1049685398.545528</v>
+        <v>2281179464.237435</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>1050.179457372701</v>
+        <v>2283.538008951441</v>
       </c>
       <c r="C516" t="n">
-        <v>1050179457.372701</v>
+        <v>2283538008.951441</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>1050.671206920907</v>
+        <v>2285.886849670062</v>
       </c>
       <c r="C517" t="n">
-        <v>1050671206.920907</v>
+        <v>2285886849.670062</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>1051.160669743141</v>
+        <v>2288.22607576764</v>
       </c>
       <c r="C518" t="n">
-        <v>1051160669.743141</v>
+        <v>2288226075.76764</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>1051.647868058468</v>
+        <v>2290.555775344586</v>
       </c>
       <c r="C519" t="n">
-        <v>1051647868.058468</v>
+        <v>2290555775.344586</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>1052.132823758628</v>
+        <v>2292.876035251902</v>
       </c>
       <c r="C520" t="n">
-        <v>1052132823.758628</v>
+        <v>2292876035.251902</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>1052.615558414486</v>
+        <v>2295.186941115104</v>
       </c>
       <c r="C521" t="n">
-        <v>1052615558.414486</v>
+        <v>2295186941.115104</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>1053.096093282321</v>
+        <v>2297.488577357573</v>
       </c>
       <c r="C522" t="n">
-        <v>1053096093.282321</v>
+        <v>2297488577.357573</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>1054.050647142755</v>
+        <v>2302.064372799367</v>
       </c>
       <c r="C523" t="n">
-        <v>1054050647.142755</v>
+        <v>2302064372.799367</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>1054.996649327817</v>
+        <v>2306.604073774237</v>
       </c>
       <c r="C524" t="n">
-        <v>1054996649.327817</v>
+        <v>2306604073.774237</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>1055.934259169429</v>
+        <v>2311.108314648449</v>
       </c>
       <c r="C525" t="n">
-        <v>1055934259.169429</v>
+        <v>2311108314.648449</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>1056.863631519471</v>
+        <v>2315.577712612778</v>
       </c>
       <c r="C526" t="n">
-        <v>1056863631.519471</v>
+        <v>2315577712.612778</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>1057.784916917434</v>
+        <v>2320.012868307573</v>
       </c>
       <c r="C527" t="n">
-        <v>1057784916.917434</v>
+        <v>2320012868.307573</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>1058.698261750265</v>
+        <v>2324.414366419366</v>
       </c>
       <c r="C528" t="n">
-        <v>1058698261.750265</v>
+        <v>2324414366.419366</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>1059.603808404851</v>
+        <v>2328.782776250569</v>
       </c>
       <c r="C529" t="n">
-        <v>1059603808.404851</v>
+        <v>2328782776.250569</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>1060.501695413526</v>
+        <v>2333.118652263715</v>
       </c>
       <c r="C530" t="n">
-        <v>1060501695.413526</v>
+        <v>2333118652.263715</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>1061.392057592997</v>
+        <v>2337.422534601598</v>
       </c>
       <c r="C531" t="n">
-        <v>1061392057.592997</v>
+        <v>2337422534.601598</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>1062.275026177042</v>
+        <v>2341.694949584596</v>
       </c>
       <c r="C532" t="n">
-        <v>1062275026.177042</v>
+        <v>2341694949.584596</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>1063.150728943304</v>
+        <v>2345.936410186382</v>
       </c>
       <c r="C533" t="n">
-        <v>1063150728.943304</v>
+        <v>2345936410.186382</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>1064.019290334506</v>
+        <v>2350.147416489126</v>
       </c>
       <c r="C534" t="n">
-        <v>1064019290.334506</v>
+        <v>2350147416.489126</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>1064.880831574373</v>
+        <v>2354.328456119271</v>
       </c>
       <c r="C535" t="n">
-        <v>1064880831.574373</v>
+        <v>2354328456.119271</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>1065.735470778535</v>
+        <v>2358.480004664868</v>
       </c>
       <c r="C536" t="n">
-        <v>1065735470.778535</v>
+        <v>2358480004.664868</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>1066.58332306068</v>
+        <v>2362.602526075388</v>
       </c>
       <c r="C537" t="n">
-        <v>1066583323.06068</v>
+        <v>2362602526.075387</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>1067.424500634185</v>
+        <v>2366.696473044924</v>
       </c>
       <c r="C538" t="n">
-        <v>1067424500.634185</v>
+        <v>2366696473.044924</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>1068.259112909473</v>
+        <v>2370.762287379579</v>
       </c>
       <c r="C539" t="n">
-        <v>1068259112.909473</v>
+        <v>2370762287.37958</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>1069.087266587293</v>
+        <v>2374.800400349848</v>
       </c>
       <c r="C540" t="n">
-        <v>1069087266.587293</v>
+        <v>2374800400.349848</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>1069.909065748137</v>
+        <v>2378.811233028699</v>
       </c>
       <c r="C541" t="n">
-        <v>1069909065.748137</v>
+        <v>2378811233.028699</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>1070.724611937982</v>
+        <v>2382.795196616082</v>
       </c>
       <c r="C542" t="n">
-        <v>1070724611.937982</v>
+        <v>2382795196.616082</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>1071.534004250541</v>
+        <v>2386.752692750491</v>
       </c>
       <c r="C543" t="n">
-        <v>1071534004.250541</v>
+        <v>2386752692.750492</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>1072.337339406183</v>
+        <v>2390.684113808213</v>
       </c>
       <c r="C544" t="n">
-        <v>1072337339.406183</v>
+        <v>2390684113.808213</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>1073.134711827697</v>
+        <v>2394.589843190843</v>
       </c>
       <c r="C545" t="n">
-        <v>1073134711.827697</v>
+        <v>2394589843.190843</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>1073.926213713037</v>
+        <v>2398.470255601616</v>
       </c>
       <c r="C546" t="n">
-        <v>1073926213.713037</v>
+        <v>2398470255.601616</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>1074.7119351052</v>
+        <v>2402.325717311079</v>
       </c>
       <c r="C547" t="n">
-        <v>1074711935.1052</v>
+        <v>2402325717.311079</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>1075.491963959372</v>
+        <v>2406.15658641259</v>
       </c>
       <c r="C548" t="n">
-        <v>1075491963.959372</v>
+        <v>2406156586.41259</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>1076.266386207464</v>
+        <v>2409.963213068128</v>
       </c>
       <c r="C549" t="n">
-        <v>1076266386.207464</v>
+        <v>2409963213.068128</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>1077.035285820164</v>
+        <v>2413.745939744826</v>
       </c>
       <c r="C550" t="n">
-        <v>1077035285.820164</v>
+        <v>2413745939.744825</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>1077.798744866616</v>
+        <v>2417.505101442677</v>
       </c>
       <c r="C551" t="n">
-        <v>1077798744.866616</v>
+        <v>2417505101.442677</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>1078.556843571842</v>
+        <v>2421.241025913786</v>
       </c>
       <c r="C552" t="n">
-        <v>1078556843.571842</v>
+        <v>2421241025.913786</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>1079.309660371992</v>
+        <v>2424.954033873559</v>
       </c>
       <c r="C553" t="n">
-        <v>1079309660.371992</v>
+        <v>2424954033.873559</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>1080.057271967543</v>
+        <v>2428.644439204167</v>
       </c>
       <c r="C554" t="n">
-        <v>1080057271.967543</v>
+        <v>2428644439.204167</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>1080.799753374519</v>
+        <v>2432.31254915065</v>
       </c>
       <c r="C555" t="n">
-        <v>1080799753.374519</v>
+        <v>2432312549.150651</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>1081.537177973827</v>
+        <v>2435.958664509953</v>
       </c>
       <c r="C556" t="n">
-        <v>1081537177.973827</v>
+        <v>2435958664.509953</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>1082.269617558796</v>
+        <v>2439.583079813217</v>
       </c>
       <c r="C557" t="n">
-        <v>1082269617.558796</v>
+        <v>2439583079.813217</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>1082.99714238099</v>
+        <v>2443.186083501606</v>
       </c>
       <c r="C558" t="n">
-        <v>1082997142.38099</v>
+        <v>2443186083.501606</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>1083.719821194372</v>
+        <v>2446.767958095953</v>
       </c>
       <c r="C559" t="n">
-        <v>1083719821.194372</v>
+        <v>2446767958.095953</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>1084.437721297897</v>
+        <v>2450.32898036047</v>
       </c>
       <c r="C560" t="n">
-        <v>1084437721.297897</v>
+        <v>2450328980.36047</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>1085.150908576584</v>
+        <v>2453.869421460793</v>
       </c>
       <c r="C561" t="n">
-        <v>1085150908.576584</v>
+        <v>2453869421.460793</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>1085.859447541153</v>
+        <v>2457.389547116572</v>
       </c>
       <c r="C562" t="n">
-        <v>1085859447.541153</v>
+        <v>2457389547.116572</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>1086.56340136627</v>
+        <v>2460.88961774886</v>
       </c>
       <c r="C563" t="n">
-        <v>1086563401.36627</v>
+        <v>2460889617.748859</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>1087.262831927468</v>
+        <v>2464.369888622485</v>
       </c>
       <c r="C564" t="n">
-        <v>1087262831.927468</v>
+        <v>2464369888.622485</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>1087.957799836795</v>
+        <v>2467.830609983634</v>
       </c>
       <c r="C565" t="n">
-        <v>1087957799.836795</v>
+        <v>2467830609.983634</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>1088.64836447724</v>
+        <v>2471.272027192825</v>
       </c>
       <c r="C566" t="n">
-        <v>1088648364.47724</v>
+        <v>2471272027.192825</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>1089.334584035992</v>
+        <v>2474.694380853467</v>
       </c>
       <c r="C567" t="n">
-        <v>1089334584.035992</v>
+        <v>2474694380.853467</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>1090.016515536577</v>
+        <v>2478.097906936165</v>
       </c>
       <c r="C568" t="n">
-        <v>1090016515.536577</v>
+        <v>2478097906.936165</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>1090.694214869914</v>
+        <v>2481.482836898965</v>
       </c>
       <c r="C569" t="n">
-        <v>1090694214.869914</v>
+        <v>2481482836.898965</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>1091.367736824341</v>
+        <v>2484.849397803666</v>
       </c>
       <c r="C570" t="n">
-        <v>1091367736.824341</v>
+        <v>2484849397.803666</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>1092.037135114644</v>
+        <v>2488.197812428389</v>
       </c>
       <c r="C571" t="n">
-        <v>1092037135.114644</v>
+        <v>2488197812.428389</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>1092.702462410139</v>
+        <v>2491.528299376513</v>
       </c>
       <c r="C572" t="n">
-        <v>1092702462.410139</v>
+        <v>2491528299.376513</v>
       </c>
     </row>
   </sheetData>
